--- a/Calculs/PH4/DataBase_PH4_FileA_MidStrip_V6_results.xlsx
+++ b/Calculs/PH4/DataBase_PH4_FileA_MidStrip_V6_results.xlsx
@@ -937,38 +937,38 @@
         <v>57.75616</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>17.54368</v>
       </c>
       <c r="AD3" t="n">
         <v>104.286336</v>
       </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="n">
-        <v>57.75616</v>
+        <v>75.29984</v>
       </c>
       <c r="AG3" t="n">
         <v>57.75616</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>17.54368</v>
       </c>
       <c r="AI3" t="n">
         <v>4.03221163376613</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1.100404544042653</v>
       </c>
       <c r="AK3" t="n">
         <v>-196.8679920668285</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-48.68031506829654</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>-64.68282275310645</v>
       </c>
       <c r="AO3" t="n">
         <v>104.286336</v>
@@ -992,13 +992,13 @@
         <v>-394.0298351819448</v>
       </c>
       <c r="AV3" t="n">
-        <v>57.75616</v>
+        <v>75.29984</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.954937416555716</v>
+        <v>3.815902837349302</v>
       </c>
       <c r="AX3" t="n">
-        <v>-199.8090675705986</v>
+        <v>-260.6062619827709</v>
       </c>
       <c r="AY3" t="n">
         <v>139.5608127713233</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>41.899</v>
       </c>
       <c r="Z4" t="n">
         <v>12.727</v>
@@ -1093,20 +1093,20 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>41.899</v>
       </c>
       <c r="AC4" t="n">
         <v>12.727</v>
       </c>
       <c r="AD4" t="n">
-        <v>20.4405</v>
+        <v>75.65415</v>
       </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="n">
-        <v>13.727</v>
+        <v>54.626</v>
       </c>
       <c r="AG4" t="n">
-        <v>1</v>
+        <v>41.899</v>
       </c>
       <c r="AH4" t="n">
         <v>12.727</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>20.4405</v>
+        <v>75.65415</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>13.727</v>
+        <v>54.626</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -1255,38 +1255,38 @@
         <v>82.50880000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>25.0624</v>
       </c>
       <c r="AD5" t="n">
         <v>148.98048</v>
       </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="n">
-        <v>83.50880000000001</v>
+        <v>107.5712</v>
       </c>
       <c r="AG5" t="n">
         <v>82.50880000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>25.0624</v>
       </c>
       <c r="AI5" t="n">
         <v>6.597923532644842</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.07389569252110484</v>
+        <v>1.852086660175052</v>
       </c>
       <c r="AK5" t="n">
         <v>-208.043692123073</v>
       </c>
       <c r="AL5" t="n">
-        <v>-2.184876231965561</v>
+        <v>-54.76543538558477</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>-3.00230897346803</v>
+        <v>-75.25472353050453</v>
       </c>
       <c r="AO5" t="n">
         <v>148.98048</v>
@@ -1310,13 +1310,13 @@
         <v>-465.8288148762886</v>
       </c>
       <c r="AV5" t="n">
-        <v>83.50880000000001</v>
+        <v>107.5712</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.870319393309229</v>
+        <v>6.174873963041843</v>
       </c>
       <c r="AX5" t="n">
-        <v>-215.439829037662</v>
+        <v>-277.7955462225471</v>
       </c>
       <c r="AY5" t="n">
         <v>185.3758029442311</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>2</v>
+        <v>41.899</v>
       </c>
       <c r="Z6" t="n">
         <v>12.727</v>
@@ -1411,20 +1411,20 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>2</v>
+        <v>41.899</v>
       </c>
       <c r="AC6" t="n">
         <v>12.727</v>
       </c>
       <c r="AD6" t="n">
-        <v>21.7905</v>
+        <v>75.65415</v>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>14.727</v>
+        <v>54.626</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>41.899</v>
       </c>
       <c r="AH6" t="n">
         <v>12.727</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>21.7905</v>
+        <v>75.65415</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>14.727</v>
+        <v>54.626</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
@@ -1573,38 +1573,38 @@
         <v>0.75008</v>
       </c>
       <c r="AC7" t="n">
-        <v>2</v>
+        <v>0.22784</v>
       </c>
       <c r="AD7" t="n">
         <v>1.354368</v>
       </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>2.75008</v>
+        <v>0.9779199999999999</v>
       </c>
       <c r="AG7" t="n">
         <v>0.75008</v>
       </c>
       <c r="AH7" t="n">
-        <v>2</v>
+        <v>0.22784</v>
       </c>
       <c r="AI7" t="n">
         <v>0.1565769506764085</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.2981663650712785</v>
+        <v>0.03377032897883413</v>
       </c>
       <c r="AK7" t="n">
         <v>-10.32273340627632</v>
       </c>
       <c r="AL7" t="n">
-        <v>-14.83404611191442</v>
+        <v>-1.683001728498895</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-20.09211393017784</v>
+        <v>-2.279474097756703</v>
       </c>
       <c r="AO7" t="n">
         <v>1.354368</v>
@@ -1628,13 +1628,13 @@
         <v>-13.84447731420324</v>
       </c>
       <c r="AV7" t="n">
-        <v>2.75008</v>
+        <v>0.9779199999999999</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.425777757038387</v>
+        <v>0.1518159934798387</v>
       </c>
       <c r="AX7" t="n">
-        <v>-38.25546005794853</v>
+        <v>-13.60228827782394</v>
       </c>
       <c r="AY7" t="n">
         <v>34.44146086956506</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>3</v>
+        <v>0.6446000000000001</v>
       </c>
       <c r="Z8" t="n">
         <v>0.1958</v>
@@ -1729,23 +1729,23 @@
         <v>0.25</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.25</v>
+        <v>0.48345</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.9458</v>
+        <v>0.35695</v>
       </c>
       <c r="AD8" t="n">
-        <v>4.343700000000001</v>
+        <v>1.16391</v>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="n">
-        <v>3.1958</v>
+        <v>0.8404</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.25</v>
+        <v>0.48345</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.9458</v>
+        <v>0.35695</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>4.343700000000001</v>
+        <v>1.16391</v>
       </c>
       <c r="AP8" t="n">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>3.1958</v>
+        <v>0.8404</v>
       </c>
       <c r="AW8" t="n">
         <v>0</v>
@@ -1891,38 +1891,38 @@
         <v>0.37504</v>
       </c>
       <c r="AC9" t="n">
-        <v>3</v>
+        <v>0.60288</v>
       </c>
       <c r="AD9" t="n">
         <v>1.354368</v>
       </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="n">
-        <v>3.37504</v>
+        <v>0.9779199999999999</v>
       </c>
       <c r="AG9" t="n">
         <v>0.37504</v>
       </c>
       <c r="AH9" t="n">
-        <v>3</v>
+        <v>0.60288</v>
       </c>
       <c r="AI9" t="n">
         <v>0.07830217517960909</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.4472557709830515</v>
+        <v>0.08989222916785386</v>
       </c>
       <c r="AK9" t="n">
         <v>-5.161243698608737</v>
       </c>
       <c r="AL9" t="n">
-        <v>-22.25102823613964</v>
+        <v>-4.471402265417987</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-30.13812555720322</v>
+        <v>-6.05635660610685</v>
       </c>
       <c r="AO9" t="n">
         <v>1.354368</v>
@@ -1946,13 +1946,13 @@
         <v>-13.84447731420324</v>
       </c>
       <c r="AV9" t="n">
-        <v>3.37504</v>
+        <v>0.9779199999999999</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.5220329104138018</v>
+        <v>0.1518159934798387</v>
       </c>
       <c r="AX9" t="n">
-        <v>-46.95060714508028</v>
+        <v>-13.60228827782394</v>
       </c>
       <c r="AY9" t="n">
         <v>34.44146086956506</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>4</v>
+        <v>36.918</v>
       </c>
       <c r="Z10" t="n">
         <v>11.214</v>
@@ -2047,44 +2047,44 @@
         <v>0.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>2</v>
+        <v>18.459</v>
       </c>
       <c r="AC10" t="n">
-        <v>13.214</v>
+        <v>29.673</v>
       </c>
       <c r="AD10" t="n">
-        <v>22.221</v>
+        <v>66.66030000000001</v>
       </c>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="n">
-        <v>15.214</v>
+        <v>48.132</v>
       </c>
       <c r="AG10" t="n">
-        <v>2</v>
+        <v>18.459</v>
       </c>
       <c r="AH10" t="n">
-        <v>13.214</v>
+        <v>29.673</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3.432013718403487</v>
+        <v>7.706836920401595</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-245.4152263095696</v>
+        <v>-551.0977758652836</v>
       </c>
       <c r="AM10" t="n">
-        <v>-245.4152263095696</v>
+        <v>-551.0977758652836</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>22.221</v>
+        <v>66.66030000000001</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
@@ -2093,25 +2093,25 @@
         <v>25.47205483625882</v>
       </c>
       <c r="AR10" t="n">
-        <v>4.122602094118431</v>
+        <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>-417.1231122495522</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>-417.1231122495522</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
       </c>
       <c r="AV10" t="n">
-        <v>15.214</v>
+        <v>48.132</v>
       </c>
       <c r="AW10" t="n">
-        <v>2.863430761838883</v>
+        <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>-285.4804776918673</v>
+        <v>0</v>
       </c>
       <c r="AY10" t="n">
         <v>25.47205483625882</v>
@@ -2209,38 +2209,38 @@
         <v>29.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>4</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="AD11" t="n">
         <v>105.81</v>
       </c>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="n">
-        <v>33.3</v>
+        <v>76.39999999999999</v>
       </c>
       <c r="AG11" t="n">
         <v>29.3</v>
       </c>
       <c r="AH11" t="n">
-        <v>4</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="AI11" t="n">
         <v>2.649507730665783</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.3268874895214989</v>
+        <v>3.849100347561103</v>
       </c>
       <c r="AK11" t="n">
         <v>-97.76439588182745</v>
       </c>
       <c r="AL11" t="n">
-        <v>-11.07676078992688</v>
+        <v>-130.4288571703404</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>-15.15248106277365</v>
+        <v>-178.4204632419654</v>
       </c>
       <c r="AO11" t="n">
         <v>105.81</v>
@@ -2264,13 +2264,13 @@
         <v>-414.4512387580368</v>
       </c>
       <c r="AV11" t="n">
-        <v>33.3</v>
+        <v>76.39999999999999</v>
       </c>
       <c r="AW11" t="n">
-        <v>2.246454682865066</v>
+        <v>4.99934616387804</v>
       </c>
       <c r="AX11" t="n">
-        <v>-113.1648326960335</v>
+        <v>-260.0774683009388</v>
       </c>
       <c r="AY11" t="n">
         <v>142.6007553479555</v>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>5</v>
+        <v>29.3</v>
       </c>
       <c r="Z12" t="n">
         <v>8.9</v>
@@ -2365,44 +2365,44 @@
         <v>0.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.5</v>
+        <v>14.65</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.4</v>
+        <v>23.55</v>
       </c>
       <c r="AD12" t="n">
-        <v>20.1</v>
+        <v>52.905</v>
       </c>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="n">
-        <v>13.9</v>
+        <v>38.2</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.5</v>
+        <v>14.65</v>
       </c>
       <c r="AH12" t="n">
-        <v>11.4</v>
+        <v>23.55</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.249280230316086</v>
+        <v>2.58074994946876</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-76.52251230536653</v>
+        <v>-158.0794004202967</v>
       </c>
       <c r="AM12" t="n">
-        <v>-90.59927016160913</v>
+        <v>-187.1590186233241</v>
       </c>
       <c r="AN12" t="n">
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>20.1</v>
+        <v>52.905</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
@@ -2411,25 +2411,25 @@
         <v>59.55438172963535</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.613346518138463</v>
+        <v>4.126219037280061</v>
       </c>
       <c r="AS12" t="n">
-        <v>-135.4666455877874</v>
+        <v>-356.7749542747011</v>
       </c>
       <c r="AT12" t="n">
-        <v>-161.3532242897283</v>
+        <v>-425.0757520447539</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
       </c>
       <c r="AV12" t="n">
-        <v>13.9</v>
+        <v>38.2</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.121505183559931</v>
+        <v>3.018763972876981</v>
       </c>
       <c r="AX12" t="n">
-        <v>-93.67058232894192</v>
+        <v>-257.5385138594025</v>
       </c>
       <c r="AY12" t="n">
         <v>59.55438172963535</v>
@@ -2527,32 +2527,32 @@
         <v>24.905</v>
       </c>
       <c r="AC13" t="n">
-        <v>5</v>
+        <v>40.035</v>
       </c>
       <c r="AD13" t="n">
         <v>89.9385</v>
       </c>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="n">
-        <v>29.905</v>
+        <v>64.94</v>
       </c>
       <c r="AG13" t="n">
         <v>24.905</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>40.035</v>
       </c>
       <c r="AI13" t="n">
         <v>1.738727622108974</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.3490720140350413</v>
+        <v>2.795019488100094</v>
       </c>
       <c r="AK13" t="n">
         <v>-84.89133180641447</v>
       </c>
       <c r="AL13" t="n">
-        <v>-17.04302975353547</v>
+        <v>-136.4635402075809</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
@@ -2582,13 +2582,13 @@
         <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>29.905</v>
+        <v>64.94</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.552564261142916</v>
+        <v>3.30962009023422</v>
       </c>
       <c r="AX13" t="n">
-        <v>-103.3933080769931</v>
+        <v>-224.698360617138</v>
       </c>
       <c r="AY13" t="n">
         <v>139.5608127713233</v>
@@ -2670,14 +2670,14 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>11.71916486709443</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-3582.089552238805</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
         <v>0</v>
@@ -2835,38 +2835,38 @@
         <v>41.02</v>
       </c>
       <c r="AC15" t="n">
-        <v>6</v>
+        <v>12.46</v>
       </c>
       <c r="AD15" t="n">
         <v>74.06699999999999</v>
       </c>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="n">
-        <v>47.02</v>
+        <v>53.48</v>
       </c>
       <c r="AG15" t="n">
         <v>41.02</v>
       </c>
       <c r="AH15" t="n">
-        <v>6</v>
+        <v>12.46</v>
       </c>
       <c r="AI15" t="n">
         <v>2.902840112491737</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.3808605724805587</v>
+        <v>0.7909284849405567</v>
       </c>
       <c r="AK15" t="n">
         <v>-142.4361347672589</v>
       </c>
       <c r="AL15" t="n">
-        <v>-16.90050660499169</v>
+        <v>-35.09666794459356</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-22.4546628022215</v>
+        <v>-46.63079395323843</v>
       </c>
       <c r="AO15" t="n">
         <v>74.06699999999999</v>
@@ -2890,13 +2890,13 @@
         <v>-283.7719682840062</v>
       </c>
       <c r="AV15" t="n">
-        <v>47.02</v>
+        <v>53.48</v>
       </c>
       <c r="AW15" t="n">
-        <v>2.451470727049634</v>
+        <v>2.77857313089295</v>
       </c>
       <c r="AX15" t="n">
-        <v>-165.658179051971</v>
+        <v>-188.4454033108782</v>
       </c>
       <c r="AY15" t="n">
         <v>136.9899254721916</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>7</v>
+        <v>46.294</v>
       </c>
       <c r="Z16" t="n">
         <v>14.062</v>
@@ -2991,20 +2991,20 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>7</v>
+        <v>46.294</v>
       </c>
       <c r="AC16" t="n">
         <v>14.062</v>
       </c>
       <c r="AD16" t="n">
-        <v>30.543</v>
+        <v>83.5899</v>
       </c>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="n">
-        <v>21.062</v>
+        <v>60.35599999999999</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>46.294</v>
       </c>
       <c r="AH16" t="n">
         <v>14.062</v>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>30.543</v>
+        <v>83.5899</v>
       </c>
       <c r="AP16" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>21.062</v>
+        <v>60.35599999999999</v>
       </c>
       <c r="AW16" t="n">
         <v>0</v>
@@ -3153,38 +3153,38 @@
         <v>92.58799999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>7</v>
+        <v>28.124</v>
       </c>
       <c r="AD17" t="n">
         <v>167.1798</v>
       </c>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="n">
-        <v>99.58799999999999</v>
+        <v>120.712</v>
       </c>
       <c r="AG17" t="n">
         <v>92.58799999999999</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>28.124</v>
       </c>
       <c r="AI17" t="n">
         <v>5.848151547266887</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.4147654060633457</v>
+        <v>1.666406591315464</v>
       </c>
       <c r="AK17" t="n">
         <v>-184.9600621993254</v>
       </c>
       <c r="AL17" t="n">
-        <v>-12.46466743596156</v>
+        <v>-50.07948554627075</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>-17.11834136756268</v>
+        <v>-68.77661874943598</v>
       </c>
       <c r="AO17" t="n">
         <v>167.1798</v>
@@ -3208,13 +3208,13 @@
         <v>-425.3704392475681</v>
       </c>
       <c r="AV17" t="n">
-        <v>99.58799999999999</v>
+        <v>120.712</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.600590128890447</v>
+        <v>5.516410630988855</v>
       </c>
       <c r="AX17" t="n">
-        <v>-203.5030763206764</v>
+        <v>-246.8383739347172</v>
       </c>
       <c r="AY17" t="n">
         <v>234.0516547892252</v>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>8</v>
+        <v>41.02</v>
       </c>
       <c r="Z18" t="n">
         <v>12.46</v>
@@ -3309,20 +3309,20 @@
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>8</v>
+        <v>41.02</v>
       </c>
       <c r="AC18" t="n">
         <v>12.46</v>
       </c>
       <c r="AD18" t="n">
-        <v>29.49</v>
+        <v>74.06699999999999</v>
       </c>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="n">
-        <v>20.46</v>
+        <v>53.48</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>41.02</v>
       </c>
       <c r="AH18" t="n">
         <v>12.46</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>29.49</v>
+        <v>74.06699999999999</v>
       </c>
       <c r="AP18" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="AV18" t="n">
-        <v>20.46</v>
+        <v>53.48</v>
       </c>
       <c r="AW18" t="n">
         <v>0</v>
@@ -3471,32 +3471,32 @@
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
       </c>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.9453648015711275</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>-62.31865980645637</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
@@ -3526,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.6991636744245338</v>
+        <v>0</v>
       </c>
       <c r="AX19" t="n">
-        <v>-62.99758795196218</v>
+        <v>0</v>
       </c>
       <c r="AY19" t="n">
         <v>60.84658086956494</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -3627,20 +3627,20 @@
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>12.15</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>12.15</v>
+        <v>0</v>
       </c>
       <c r="AP20" t="n">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="AV20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AW20" t="n">
         <v>0</v>
@@ -3789,32 +3789,32 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
       </c>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.063534777221862</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>-70.10849641055341</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
@@ -3844,13 +3844,13 @@
         <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.7858675924290183</v>
+        <v>0</v>
       </c>
       <c r="AX21" t="n">
-        <v>-70.87439655399199</v>
+        <v>0</v>
       </c>
       <c r="AY21" t="n">
         <v>60.84658086956494</v>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>39.262</v>
       </c>
       <c r="Z22" t="n">
         <v>11.926</v>
@@ -3945,20 +3945,20 @@
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>10</v>
+        <v>39.262</v>
       </c>
       <c r="AC22" t="n">
         <v>11.926</v>
       </c>
       <c r="AD22" t="n">
-        <v>31.389</v>
+        <v>70.8927</v>
       </c>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="n">
-        <v>21.926</v>
+        <v>51.188</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>39.262</v>
       </c>
       <c r="AH22" t="n">
         <v>11.926</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>31.389</v>
+        <v>70.8927</v>
       </c>
       <c r="AP22" t="n">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>21.926</v>
+        <v>51.188</v>
       </c>
       <c r="AW22" t="n">
         <v>0</v>
@@ -4107,38 +4107,38 @@
         <v>86.142</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>26.166</v>
       </c>
       <c r="AD23" t="n">
         <v>155.5407</v>
       </c>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="n">
-        <v>96.142</v>
+        <v>112.308</v>
       </c>
       <c r="AG23" t="n">
         <v>86.142</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>26.166</v>
       </c>
       <c r="AI23" t="n">
         <v>6.152909350208685</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.6379798157553671</v>
+        <v>1.669337976344505</v>
       </c>
       <c r="AK23" t="n">
         <v>-227.7362627514825</v>
       </c>
       <c r="AL23" t="n">
-        <v>-21.45871727816057</v>
+        <v>-56.14887969732945</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>-29.36125483950212</v>
+        <v>-76.82665948854161</v>
       </c>
       <c r="AO23" t="n">
         <v>155.5407</v>
@@ -4162,13 +4162,13 @@
         <v>-472.6153653046126</v>
       </c>
       <c r="AV23" t="n">
-        <v>96.142</v>
+        <v>112.308</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.970046740411385</v>
+        <v>5.750291454519624</v>
       </c>
       <c r="AX23" t="n">
-        <v>-259.2976845222541</v>
+        <v>-303.0593952316504</v>
       </c>
       <c r="AY23" t="n">
         <v>179.9805132143005</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>41.02</v>
       </c>
       <c r="Z24" t="n">
         <v>12.46</v>
@@ -4263,20 +4263,20 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>11</v>
+        <v>41.02</v>
       </c>
       <c r="AC24" t="n">
         <v>12.46</v>
       </c>
       <c r="AD24" t="n">
-        <v>33.54</v>
+        <v>74.06699999999999</v>
       </c>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="n">
-        <v>23.46</v>
+        <v>53.48</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>41.02</v>
       </c>
       <c r="AH24" t="n">
         <v>12.46</v>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>33.54</v>
+        <v>74.06699999999999</v>
       </c>
       <c r="AP24" t="n">
         <v>0</v>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="AV24" t="n">
-        <v>23.46</v>
+        <v>53.48</v>
       </c>
       <c r="AW24" t="n">
         <v>0</v>
@@ -4425,38 +4425,38 @@
         <v>42.192</v>
       </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>12.816</v>
       </c>
       <c r="AD25" t="n">
         <v>76.1832</v>
       </c>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="n">
-        <v>53.192</v>
+        <v>55.008</v>
       </c>
       <c r="AG25" t="n">
         <v>42.192</v>
       </c>
       <c r="AH25" t="n">
-        <v>11</v>
+        <v>12.816</v>
       </c>
       <c r="AI25" t="n">
         <v>2.985778401420073</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.6982527498093355</v>
+        <v>0.813527409373297</v>
       </c>
       <c r="AK25" t="n">
         <v>-146.5057386177521</v>
       </c>
       <c r="AL25" t="n">
-        <v>-30.98420920325744</v>
+        <v>-36.09942376676425</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>-41.16682365924805</v>
+        <v>-47.96309562686348</v>
       </c>
       <c r="AO25" t="n">
         <v>76.1832</v>
@@ -4480,13 +4480,13 @@
         <v>-291.8989095814583</v>
       </c>
       <c r="AV25" t="n">
-        <v>53.192</v>
+        <v>55.008</v>
       </c>
       <c r="AW25" t="n">
-        <v>2.764041509175571</v>
+        <v>2.8555910834165</v>
       </c>
       <c r="AX25" t="n">
-        <v>-187.4293547114731</v>
+        <v>-193.8363372057563</v>
       </c>
       <c r="AY25" t="n">
         <v>136.9899254721916</v>
@@ -4568,14 +4568,14 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
@@ -4583,22 +4583,22 @@
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH26" t="n">
         <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>23.43832973418886</v>
+        <v>0</v>
       </c>
       <c r="AJ26" t="n">
         <v>0</v>
       </c>
       <c r="AK26" t="n">
-        <v>-7164.179104477614</v>
+        <v>0</v>
       </c>
       <c r="AL26" t="n">
         <v>0</v>
@@ -4629,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="AV26" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AW26" t="n">
         <v>0</v>
@@ -4733,38 +4733,38 @@
         <v>38.09</v>
       </c>
       <c r="AC27" t="n">
-        <v>12</v>
+        <v>11.57</v>
       </c>
       <c r="AD27" t="n">
         <v>68.7765</v>
       </c>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="n">
-        <v>50.09</v>
+        <v>49.66</v>
       </c>
       <c r="AG27" t="n">
         <v>38.09</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>11.57</v>
       </c>
       <c r="AI27" t="n">
         <v>2.695494390170897</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.7617256725730441</v>
+        <v>0.7344348985722545</v>
       </c>
       <c r="AK27" t="n">
         <v>-132.2621251410262</v>
       </c>
       <c r="AL27" t="n">
-        <v>-33.80098458091573</v>
+        <v>-32.58975483699903</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>-44.90929414042276</v>
+        <v>-43.30001388478816</v>
       </c>
       <c r="AO27" t="n">
         <v>68.7765</v>
@@ -4788,13 +4788,13 @@
         <v>-263.4622775882136</v>
       </c>
       <c r="AV27" t="n">
-        <v>50.09</v>
+        <v>49.66</v>
       </c>
       <c r="AW27" t="n">
-        <v>2.607220027115431</v>
+        <v>2.585437604606063</v>
       </c>
       <c r="AX27" t="n">
-        <v>-176.4865394320495</v>
+        <v>-174.9697697286322</v>
       </c>
       <c r="AY27" t="n">
         <v>136.9899254721916</v>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>13</v>
+        <v>52.73999999999999</v>
       </c>
       <c r="Z28" t="n">
         <v>16.02</v>
@@ -4889,20 +4889,20 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>13</v>
+        <v>52.73999999999999</v>
       </c>
       <c r="AC28" t="n">
         <v>16.02</v>
       </c>
       <c r="AD28" t="n">
-        <v>41.58</v>
+        <v>95.229</v>
       </c>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="n">
-        <v>29.02</v>
+        <v>68.75999999999999</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>52.73999999999999</v>
       </c>
       <c r="AH28" t="n">
         <v>16.02</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="AO28" t="n">
-        <v>41.58</v>
+        <v>95.229</v>
       </c>
       <c r="AP28" t="n">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="AV28" t="n">
-        <v>29.02</v>
+        <v>68.75999999999999</v>
       </c>
       <c r="AW28" t="n">
         <v>0</v>
@@ -5051,38 +5051,38 @@
         <v>100.792</v>
       </c>
       <c r="AC29" t="n">
-        <v>13</v>
+        <v>30.616</v>
       </c>
       <c r="AD29" t="n">
         <v>181.9932</v>
       </c>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="n">
-        <v>113.792</v>
+        <v>131.408</v>
       </c>
       <c r="AG29" t="n">
         <v>100.792</v>
       </c>
       <c r="AH29" t="n">
-        <v>13</v>
+        <v>30.616</v>
       </c>
       <c r="AI29" t="n">
         <v>6.366342190695587</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.7702775454096515</v>
+        <v>1.814062871558609</v>
       </c>
       <c r="AK29" t="n">
         <v>-201.3489284701518</v>
       </c>
       <c r="AL29" t="n">
-        <v>-23.14867416091311</v>
+        <v>-54.51690831619351</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>-31.79121190949609</v>
+        <v>-74.8707495247025</v>
       </c>
       <c r="AO29" t="n">
         <v>181.9932</v>
@@ -5106,13 +5106,13 @@
         <v>-463.3770991919615</v>
       </c>
       <c r="AV29" t="n">
-        <v>113.792</v>
+        <v>131.408</v>
       </c>
       <c r="AW29" t="n">
-        <v>5.218857060097702</v>
+        <v>5.971525216634906</v>
       </c>
       <c r="AX29" t="n">
-        <v>-232.6351454471843</v>
+        <v>-268.8056108372073</v>
       </c>
       <c r="AY29" t="n">
         <v>234.0516547892252</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>14</v>
+        <v>49.224</v>
       </c>
       <c r="Z30" t="n">
         <v>14.952</v>
@@ -5207,20 +5207,20 @@
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>14</v>
+        <v>49.224</v>
       </c>
       <c r="AC30" t="n">
         <v>14.952</v>
       </c>
       <c r="AD30" t="n">
-        <v>41.328</v>
+        <v>88.88039999999999</v>
       </c>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="n">
-        <v>28.952</v>
+        <v>64.176</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>49.224</v>
       </c>
       <c r="AH30" t="n">
         <v>14.952</v>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="AO30" t="n">
-        <v>41.328</v>
+        <v>88.88039999999999</v>
       </c>
       <c r="AP30" t="n">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="AV30" t="n">
-        <v>28.952</v>
+        <v>64.176</v>
       </c>
       <c r="AW30" t="n">
         <v>0</v>
@@ -5369,32 +5369,32 @@
         <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
       </c>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1.654386085676408</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="n">
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>-109.0576699773119</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
@@ -5424,13 +5424,13 @@
         <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AW31" t="n">
-        <v>1.217058018264735</v>
+        <v>0</v>
       </c>
       <c r="AX31" t="n">
-        <v>-110.2655713273145</v>
+        <v>0</v>
       </c>
       <c r="AY31" t="n">
         <v>60.84658086956494</v>
@@ -5516,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -5525,20 +5525,20 @@
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC32" t="n">
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>20.25</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH32" t="n">
         <v>0</v>
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="AO32" t="n">
-        <v>20.25</v>
+        <v>0</v>
       </c>
       <c r="AP32" t="n">
         <v>0</v>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="AV32" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AW32" t="n">
         <v>0</v>
@@ -5687,32 +5687,32 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
       </c>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
         <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1.772556520367583</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>-116.8475035471199</v>
+        <v>0</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
@@ -5742,13 +5742,13 @@
         <v>0</v>
       </c>
       <c r="AV33" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AW33" t="n">
-        <v>1.302827818268824</v>
+        <v>0</v>
       </c>
       <c r="AX33" t="n">
-        <v>-118.1452426452588</v>
+        <v>0</v>
       </c>
       <c r="AY33" t="n">
         <v>60.84658086956494</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>16</v>
+        <v>41.02</v>
       </c>
       <c r="Z34" t="n">
         <v>12.46</v>
@@ -5843,20 +5843,20 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>16</v>
+        <v>41.02</v>
       </c>
       <c r="AC34" t="n">
         <v>12.46</v>
       </c>
       <c r="AD34" t="n">
-        <v>40.29</v>
+        <v>74.06699999999999</v>
       </c>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="n">
-        <v>28.46</v>
+        <v>53.48</v>
       </c>
       <c r="AG34" t="n">
-        <v>16</v>
+        <v>41.02</v>
       </c>
       <c r="AH34" t="n">
         <v>12.46</v>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="AO34" t="n">
-        <v>40.29</v>
+        <v>74.06699999999999</v>
       </c>
       <c r="AP34" t="n">
         <v>0</v>
@@ -5901,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="AV34" t="n">
-        <v>28.46</v>
+        <v>53.48</v>
       </c>
       <c r="AW34" t="n">
         <v>0</v>
@@ -6005,38 +6005,38 @@
         <v>86.142</v>
       </c>
       <c r="AC35" t="n">
-        <v>16</v>
+        <v>26.166</v>
       </c>
       <c r="AD35" t="n">
         <v>155.5407</v>
       </c>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="n">
-        <v>102.142</v>
+        <v>112.308</v>
       </c>
       <c r="AG35" t="n">
         <v>86.142</v>
       </c>
       <c r="AH35" t="n">
-        <v>16</v>
+        <v>26.166</v>
       </c>
       <c r="AI35" t="n">
         <v>6.152909350208685</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1.020767699362229</v>
+        <v>1.669337976344505</v>
       </c>
       <c r="AK35" t="n">
         <v>-227.7362627514825</v>
       </c>
       <c r="AL35" t="n">
-        <v>-34.3339476862062</v>
+        <v>-56.14887969732945</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
       </c>
       <c r="AN35" t="n">
-        <v>-46.97800778937042</v>
+        <v>-76.82665948854161</v>
       </c>
       <c r="AO35" t="n">
         <v>155.5407</v>
@@ -6060,13 +6060,13 @@
         <v>-472.6153653046126</v>
       </c>
       <c r="AV35" t="n">
-        <v>102.142</v>
+        <v>112.308</v>
       </c>
       <c r="AW35" t="n">
-        <v>5.261612157733846</v>
+        <v>5.750291454519624</v>
       </c>
       <c r="AX35" t="n">
-        <v>-275.5339675449411</v>
+        <v>-303.0593952316504</v>
       </c>
       <c r="AY35" t="n">
         <v>179.9805132143005</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>17</v>
+        <v>38.09</v>
       </c>
       <c r="Z36" t="n">
         <v>11.57</v>
@@ -6161,20 +6161,20 @@
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>17</v>
+        <v>38.09</v>
       </c>
       <c r="AC36" t="n">
         <v>11.57</v>
       </c>
       <c r="AD36" t="n">
-        <v>40.30500000000001</v>
+        <v>68.7765</v>
       </c>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="n">
-        <v>28.57</v>
+        <v>49.66</v>
       </c>
       <c r="AG36" t="n">
-        <v>17</v>
+        <v>38.09</v>
       </c>
       <c r="AH36" t="n">
         <v>11.57</v>
@@ -6198,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>40.30500000000001</v>
+        <v>68.7765</v>
       </c>
       <c r="AP36" t="n">
         <v>0</v>
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="AV36" t="n">
-        <v>28.57</v>
+        <v>49.66</v>
       </c>
       <c r="AW36" t="n">
         <v>0</v>
@@ -6323,32 +6323,32 @@
         <v>42.778</v>
       </c>
       <c r="AC37" t="n">
-        <v>17</v>
+        <v>12.994</v>
       </c>
       <c r="AD37" t="n">
         <v>77.2413</v>
       </c>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="n">
-        <v>59.778</v>
+        <v>55.772</v>
       </c>
       <c r="AG37" t="n">
         <v>42.778</v>
       </c>
       <c r="AH37" t="n">
-        <v>17</v>
+        <v>12.994</v>
       </c>
       <c r="AI37" t="n">
         <v>3.027247545884238</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1.203029788209643</v>
+        <v>0.9195393569409469</v>
       </c>
       <c r="AK37" t="n">
         <v>-148.5405405429986</v>
       </c>
       <c r="AL37" t="n">
-        <v>-59.0300899815554</v>
+        <v>-45.11982289531357</v>
       </c>
       <c r="AM37" t="n">
         <v>0</v>
@@ -6378,13 +6378,13 @@
         <v>0</v>
       </c>
       <c r="AV37" t="n">
-        <v>59.778</v>
+        <v>55.772</v>
       </c>
       <c r="AW37" t="n">
-        <v>3.095146979363073</v>
+        <v>2.894049270304163</v>
       </c>
       <c r="AX37" t="n">
-        <v>-210.6678836009433</v>
+        <v>-196.5319505595179</v>
       </c>
       <c r="AY37" t="n">
         <v>136.9899254721916</v>
@@ -6466,14 +6466,14 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
       </c>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AC38" t="n">
         <v>0</v>
@@ -6481,22 +6481,22 @@
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AH38" t="n">
         <v>0</v>
       </c>
       <c r="AI38" t="n">
-        <v>35.1574946012834</v>
+        <v>0</v>
       </c>
       <c r="AJ38" t="n">
         <v>0</v>
       </c>
       <c r="AK38" t="n">
-        <v>-10746.26865671642</v>
+        <v>0</v>
       </c>
       <c r="AL38" t="n">
         <v>0</v>
@@ -6527,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="AV38" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AW38" t="n">
         <v>0</v>
@@ -6631,38 +6631,38 @@
         <v>41.02</v>
       </c>
       <c r="AC39" t="n">
-        <v>18</v>
+        <v>12.46</v>
       </c>
       <c r="AD39" t="n">
         <v>74.06699999999999</v>
       </c>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="n">
-        <v>59.02</v>
+        <v>53.48</v>
       </c>
       <c r="AG39" t="n">
         <v>41.02</v>
       </c>
       <c r="AH39" t="n">
-        <v>18</v>
+        <v>12.46</v>
       </c>
       <c r="AI39" t="n">
         <v>2.902840112491737</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1.142594676086092</v>
+        <v>0.7909284849405567</v>
       </c>
       <c r="AK39" t="n">
         <v>-142.4361347672589</v>
       </c>
       <c r="AL39" t="n">
-        <v>-50.70143787466887</v>
+        <v>-35.09666794459356</v>
       </c>
       <c r="AM39" t="n">
         <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>-67.36389835233634</v>
+        <v>-46.63079395323843</v>
       </c>
       <c r="AO39" t="n">
         <v>74.06699999999999</v>
@@ -6686,13 +6686,13 @@
         <v>-283.7719682840062</v>
       </c>
       <c r="AV39" t="n">
-        <v>59.02</v>
+        <v>53.48</v>
       </c>
       <c r="AW39" t="n">
-        <v>3.057167838834132</v>
+        <v>2.77857313089295</v>
       </c>
       <c r="AX39" t="n">
-        <v>-207.9929291434843</v>
+        <v>-188.4454033108782</v>
       </c>
       <c r="AY39" t="n">
         <v>136.9899254721916</v>
@@ -6778,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>19</v>
+        <v>45.122</v>
       </c>
       <c r="Z40" t="n">
         <v>13.706</v>
@@ -6787,20 +6787,20 @@
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>19</v>
+        <v>45.122</v>
       </c>
       <c r="AC40" t="n">
         <v>13.706</v>
       </c>
       <c r="AD40" t="n">
-        <v>46.209</v>
+        <v>81.47370000000001</v>
       </c>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="n">
-        <v>32.706</v>
+        <v>58.828</v>
       </c>
       <c r="AG40" t="n">
-        <v>19</v>
+        <v>45.122</v>
       </c>
       <c r="AH40" t="n">
         <v>13.706</v>
@@ -6824,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="AO40" t="n">
-        <v>46.209</v>
+        <v>81.47370000000001</v>
       </c>
       <c r="AP40" t="n">
         <v>0</v>
@@ -6845,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="AV40" t="n">
-        <v>32.706</v>
+        <v>58.828</v>
       </c>
       <c r="AW40" t="n">
         <v>0</v>
@@ -6949,38 +6949,38 @@
         <v>96.69</v>
       </c>
       <c r="AC41" t="n">
-        <v>19</v>
+        <v>29.37</v>
       </c>
       <c r="AD41" t="n">
         <v>174.5865</v>
       </c>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="n">
-        <v>115.69</v>
+        <v>126.06</v>
       </c>
       <c r="AG41" t="n">
         <v>96.69</v>
       </c>
       <c r="AH41" t="n">
-        <v>19</v>
+        <v>29.37</v>
       </c>
       <c r="AI41" t="n">
         <v>6.107246868981237</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1.125790258675644</v>
+        <v>1.740234731437037</v>
       </c>
       <c r="AK41" t="n">
         <v>-193.1544953347387</v>
       </c>
       <c r="AL41" t="n">
-        <v>-33.83267761979607</v>
+        <v>-52.29819693123211</v>
       </c>
       <c r="AM41" t="n">
         <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>-46.46407894464813</v>
+        <v>-71.82368413706922</v>
       </c>
       <c r="AO41" t="n">
         <v>174.5865</v>
@@ -7004,13 +7004,13 @@
         <v>-444.3664374673814</v>
       </c>
       <c r="AV41" t="n">
-        <v>115.69</v>
+        <v>126.06</v>
       </c>
       <c r="AW41" t="n">
-        <v>5.300710043268085</v>
+        <v>5.74470238870591</v>
       </c>
       <c r="AX41" t="n">
-        <v>-236.5300802162195</v>
+        <v>-257.8198778718473</v>
       </c>
       <c r="AY41" t="n">
         <v>234.0516547892252</v>
@@ -7096,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>20</v>
+        <v>54.498</v>
       </c>
       <c r="Z42" t="n">
         <v>16.554</v>
@@ -7105,23 +7105,23 @@
         <v>0.25</v>
       </c>
       <c r="AB42" t="n">
-        <v>15</v>
+        <v>40.8735</v>
       </c>
       <c r="AC42" t="n">
-        <v>21.554</v>
+        <v>30.1785</v>
       </c>
       <c r="AD42" t="n">
-        <v>51.831</v>
+        <v>98.4033</v>
       </c>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="n">
-        <v>36.554</v>
+        <v>71.05199999999999</v>
       </c>
       <c r="AG42" t="n">
-        <v>15</v>
+        <v>40.8735</v>
       </c>
       <c r="AH42" t="n">
-        <v>21.554</v>
+        <v>30.1785</v>
       </c>
       <c r="AI42" t="n">
         <v>0</v>
@@ -7142,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="AO42" t="n">
-        <v>51.831</v>
+        <v>98.4033</v>
       </c>
       <c r="AP42" t="n">
         <v>0</v>
@@ -7163,7 +7163,7 @@
         <v>0</v>
       </c>
       <c r="AV42" t="n">
-        <v>36.554</v>
+        <v>71.05199999999999</v>
       </c>
       <c r="AW42" t="n">
         <v>0</v>
@@ -7267,32 +7267,32 @@
         <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
       </c>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG43" t="n">
         <v>0</v>
       </c>
       <c r="AH43" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI43" t="n">
         <v>0</v>
       </c>
       <c r="AJ43" t="n">
-        <v>2.363408693823439</v>
+        <v>0</v>
       </c>
       <c r="AK43" t="n">
         <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>-155.7966713961599</v>
+        <v>0</v>
       </c>
       <c r="AM43" t="n">
         <v>0</v>
@@ -7322,13 +7322,13 @@
         <v>0</v>
       </c>
       <c r="AV43" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AW43" t="n">
-        <v>1.729315801383582</v>
+        <v>0</v>
       </c>
       <c r="AX43" t="n">
-        <v>-157.5508610334664</v>
+        <v>0</v>
       </c>
       <c r="AY43" t="n">
         <v>60.84658086956494</v>
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
@@ -7423,44 +7423,44 @@
         <v>0.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>28.35</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AG44" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH44" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AI44" t="n">
         <v>0</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1.157008722031254</v>
+        <v>0</v>
       </c>
       <c r="AK44" t="n">
         <v>0</v>
       </c>
       <c r="AL44" t="n">
-        <v>-70.48101458453871</v>
+        <v>0</v>
       </c>
       <c r="AM44" t="n">
-        <v>-83.45313929416677</v>
+        <v>0</v>
       </c>
       <c r="AN44" t="n">
         <v>0</v>
       </c>
       <c r="AO44" t="n">
-        <v>28.35</v>
+        <v>0</v>
       </c>
       <c r="AP44" t="n">
         <v>0</v>
@@ -7469,25 +7469,25 @@
         <v>59.55438172984016</v>
       </c>
       <c r="AR44" t="n">
-        <v>2.270200086857629</v>
+        <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>-191.1188945679068</v>
+        <v>0</v>
       </c>
       <c r="AT44" t="n">
-        <v>-227.6785799660972</v>
+        <v>0</v>
       </c>
       <c r="AU44" t="n">
         <v>0</v>
       </c>
       <c r="AV44" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AW44" t="n">
-        <v>1.692226052796558</v>
+        <v>0</v>
       </c>
       <c r="AX44" t="n">
-        <v>-141.5509211844876</v>
+        <v>0</v>
       </c>
       <c r="AY44" t="n">
         <v>59.55438172984016</v>
@@ -7585,38 +7585,38 @@
         <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
       </c>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AG45" t="n">
         <v>0</v>
       </c>
       <c r="AH45" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI45" t="n">
         <v>0</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1.983993802179338</v>
+        <v>0</v>
       </c>
       <c r="AK45" t="n">
         <v>0</v>
       </c>
       <c r="AL45" t="n">
-        <v>-110.2809953819281</v>
+        <v>0</v>
       </c>
       <c r="AM45" t="n">
         <v>0</v>
       </c>
       <c r="AN45" t="n">
-        <v>-149.0375483155819</v>
+        <v>0</v>
       </c>
       <c r="AO45" t="n">
         <v>0</v>
@@ -7640,13 +7640,13 @@
         <v>0</v>
       </c>
       <c r="AV45" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AW45" t="n">
-        <v>1.81413865910107</v>
+        <v>0</v>
       </c>
       <c r="AX45" t="n">
-        <v>-165.4334474232411</v>
+        <v>0</v>
       </c>
       <c r="AY45" t="n">
         <v>60.84658086956494</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>22</v>
+        <v>96.69</v>
       </c>
       <c r="Z46" t="n">
         <v>29.37</v>
@@ -7741,44 +7741,44 @@
         <v>0.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>11</v>
+        <v>48.345</v>
       </c>
       <c r="AC46" t="n">
-        <v>40.37</v>
+        <v>77.715</v>
       </c>
       <c r="AD46" t="n">
-        <v>73.755</v>
+        <v>174.5865</v>
       </c>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="n">
-        <v>51.37</v>
+        <v>126.06</v>
       </c>
       <c r="AG46" t="n">
-        <v>11</v>
+        <v>48.345</v>
       </c>
       <c r="AH46" t="n">
-        <v>40.37</v>
+        <v>77.715</v>
       </c>
       <c r="AI46" t="n">
         <v>0</v>
       </c>
       <c r="AJ46" t="n">
-        <v>5.604488620687462</v>
+        <v>10.78902237197736</v>
       </c>
       <c r="AK46" t="n">
         <v>0</v>
       </c>
       <c r="AL46" t="n">
-        <v>-375.4398188369454</v>
+        <v>-722.7472261806594</v>
       </c>
       <c r="AM46" t="n">
-        <v>-375.4398188369454</v>
+        <v>-722.7472261806594</v>
       </c>
       <c r="AN46" t="n">
         <v>0</v>
       </c>
       <c r="AO46" t="n">
-        <v>73.755</v>
+        <v>174.5865</v>
       </c>
       <c r="AP46" t="n">
         <v>0</v>
@@ -7799,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="AV46" t="n">
-        <v>51.37</v>
+        <v>126.06</v>
       </c>
       <c r="AW46" t="n">
         <v>0</v>
@@ -7903,38 +7903,38 @@
         <v>42.485</v>
       </c>
       <c r="AC47" t="n">
-        <v>22</v>
+        <v>68.295</v>
       </c>
       <c r="AD47" t="n">
         <v>153.4245</v>
       </c>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="n">
-        <v>64.485</v>
+        <v>110.78</v>
       </c>
       <c r="AG47" t="n">
         <v>42.485</v>
       </c>
       <c r="AH47" t="n">
-        <v>22</v>
+        <v>68.295</v>
       </c>
       <c r="AI47" t="n">
         <v>3.034598148912449</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1.403555586623064</v>
+        <v>4.357083126746469</v>
       </c>
       <c r="AK47" t="n">
         <v>-112.3189050985203</v>
       </c>
       <c r="AL47" t="n">
-        <v>-47.20917806853345</v>
+        <v>-146.5523098268408</v>
       </c>
       <c r="AM47" t="n">
         <v>0</v>
       </c>
       <c r="AN47" t="n">
-        <v>-64.59476071038422</v>
+        <v>-200.5226901234408</v>
       </c>
       <c r="AO47" t="n">
         <v>153.4245</v>
@@ -7958,13 +7958,13 @@
         <v>-466.1389880445279</v>
       </c>
       <c r="AV47" t="n">
-        <v>64.485</v>
+        <v>110.78</v>
       </c>
       <c r="AW47" t="n">
-        <v>3.394162601710802</v>
+        <v>5.677272594771612</v>
       </c>
       <c r="AX47" t="n">
-        <v>-173.7425183391366</v>
+        <v>-298.9209078287499</v>
       </c>
       <c r="AY47" t="n">
         <v>179.9805132143005</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>23</v>
+        <v>15.236</v>
       </c>
       <c r="Z48" t="n">
         <v>4.628</v>
@@ -8059,44 +8059,44 @@
         <v>0.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>11.5</v>
+        <v>7.617999999999999</v>
       </c>
       <c r="AC48" t="n">
-        <v>16.128</v>
+        <v>12.246</v>
       </c>
       <c r="AD48" t="n">
-        <v>37.992</v>
+        <v>27.5106</v>
       </c>
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="n">
-        <v>27.628</v>
+        <v>19.864</v>
       </c>
       <c r="AG48" t="n">
-        <v>11.5</v>
+        <v>7.617999999999999</v>
       </c>
       <c r="AH48" t="n">
-        <v>16.128</v>
+        <v>12.246</v>
       </c>
       <c r="AI48" t="n">
         <v>0</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1.777165397040006</v>
+        <v>1.349402743809023</v>
       </c>
       <c r="AK48" t="n">
         <v>0</v>
       </c>
       <c r="AL48" t="n">
-        <v>-108.2588384018515</v>
+        <v>-82.20100043831056</v>
       </c>
       <c r="AM48" t="n">
-        <v>-128.1840219558402</v>
+        <v>-97.33020417108249</v>
       </c>
       <c r="AN48" t="n">
         <v>0</v>
       </c>
       <c r="AO48" t="n">
-        <v>37.992</v>
+        <v>27.5106</v>
       </c>
       <c r="AP48" t="n">
         <v>0</v>
@@ -8105,25 +8105,25 @@
         <v>59.55438172984016</v>
       </c>
       <c r="AR48" t="n">
-        <v>3.016852868666035</v>
+        <v>2.204575589402713</v>
       </c>
       <c r="AS48" t="n">
-        <v>-256.1643549725069</v>
+        <v>-185.4573557972713</v>
       </c>
       <c r="AT48" t="n">
-        <v>-305.1930797890796</v>
+        <v>-220.9323932031688</v>
       </c>
       <c r="AU48" t="n">
         <v>0</v>
       </c>
       <c r="AV48" t="n">
-        <v>27.628</v>
+        <v>19.864</v>
       </c>
       <c r="AW48" t="n">
-        <v>2.213759911035035</v>
+        <v>1.60222461141521</v>
       </c>
       <c r="AX48" t="n">
-        <v>-186.2491783278434</v>
+        <v>-133.8909847174686</v>
       </c>
       <c r="AY48" t="n">
         <v>59.55438172984016</v>
@@ -8221,32 +8221,32 @@
         <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
       </c>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AG49" t="n">
         <v>0</v>
       </c>
       <c r="AH49" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI49" t="n">
         <v>0</v>
       </c>
       <c r="AJ49" t="n">
-        <v>2.251519094368605</v>
+        <v>0</v>
       </c>
       <c r="AK49" t="n">
         <v>0</v>
       </c>
       <c r="AL49" t="n">
-        <v>-158.5688330102491</v>
+        <v>0</v>
       </c>
       <c r="AM49" t="n">
         <v>0</v>
@@ -8276,13 +8276,13 @@
         <v>0</v>
       </c>
       <c r="AV49" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AW49" t="n">
-        <v>1.646384657017911</v>
+        <v>0</v>
       </c>
       <c r="AX49" t="n">
-        <v>-160.2518034407121</v>
+        <v>0</v>
       </c>
       <c r="AY49" t="n">
         <v>68.74873422974773</v>
@@ -8364,14 +8364,14 @@
         <v>0</v>
       </c>
       <c r="Y50" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z50" t="n">
         <v>0</v>
       </c>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AC50" t="n">
         <v>0</v>
@@ -8379,22 +8379,22 @@
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AG50" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AH50" t="n">
         <v>0</v>
       </c>
       <c r="AI50" t="n">
-        <v>46.87665946837771</v>
+        <v>0</v>
       </c>
       <c r="AJ50" t="n">
         <v>0</v>
       </c>
       <c r="AK50" t="n">
-        <v>-14328.35820895522</v>
+        <v>0</v>
       </c>
       <c r="AL50" t="n">
         <v>0</v>
@@ -8425,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="AV50" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AW50" t="n">
         <v>0</v>
@@ -8529,32 +8529,32 @@
         <v>49.224</v>
       </c>
       <c r="AC51" t="n">
-        <v>24</v>
+        <v>14.952</v>
       </c>
       <c r="AD51" t="n">
         <v>88.88039999999999</v>
       </c>
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="n">
-        <v>73.22399999999999</v>
+        <v>64.176</v>
       </c>
       <c r="AG51" t="n">
         <v>49.224</v>
       </c>
       <c r="AH51" t="n">
-        <v>24</v>
+        <v>14.952</v>
       </c>
       <c r="AI51" t="n">
         <v>2.936531196761651</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1.431755824847221</v>
+        <v>0.891983878879819</v>
       </c>
       <c r="AK51" t="n">
         <v>-116.1239799983782</v>
       </c>
       <c r="AL51" t="n">
-        <v>-56.61822525518199</v>
+        <v>-35.27315433397837</v>
       </c>
       <c r="AM51" t="n">
         <v>0</v>
@@ -8584,13 +8584,13 @@
         <v>0</v>
       </c>
       <c r="AV51" t="n">
-        <v>73.22399999999999</v>
+        <v>64.176</v>
       </c>
       <c r="AW51" t="n">
-        <v>3.219575275500401</v>
+        <v>2.833154730872132</v>
       </c>
       <c r="AX51" t="n">
-        <v>-175.8367950452098</v>
+        <v>-154.0795720749711</v>
       </c>
       <c r="AY51" t="n">
         <v>201.7557870266416</v>
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>25</v>
+        <v>27.542</v>
       </c>
       <c r="Z52" t="n">
         <v>8.366</v>
@@ -8685,20 +8685,20 @@
         <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>25</v>
+        <v>27.542</v>
       </c>
       <c r="AC52" t="n">
         <v>8.366</v>
       </c>
       <c r="AD52" t="n">
-        <v>46.299</v>
+        <v>49.7307</v>
       </c>
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="n">
-        <v>33.366</v>
+        <v>35.908</v>
       </c>
       <c r="AG52" t="n">
-        <v>25</v>
+        <v>27.542</v>
       </c>
       <c r="AH52" t="n">
         <v>8.366</v>
@@ -8722,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="AO52" t="n">
-        <v>46.299</v>
+        <v>49.7307</v>
       </c>
       <c r="AP52" t="n">
         <v>0</v>
@@ -8743,7 +8743,7 @@
         <v>0</v>
       </c>
       <c r="AV52" t="n">
-        <v>33.366</v>
+        <v>35.908</v>
       </c>
       <c r="AW52" t="n">
         <v>0</v>
@@ -8847,32 +8847,32 @@
         <v>73.25</v>
       </c>
       <c r="AC53" t="n">
-        <v>25</v>
+        <v>22.25</v>
       </c>
       <c r="AD53" t="n">
         <v>132.2625</v>
       </c>
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="n">
-        <v>98.25</v>
+        <v>95.5</v>
       </c>
       <c r="AG53" t="n">
         <v>73.25</v>
       </c>
       <c r="AH53" t="n">
-        <v>25</v>
+        <v>22.25</v>
       </c>
       <c r="AI53" t="n">
         <v>4.670766003694162</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1.594116995365141</v>
+        <v>1.418763432447539</v>
       </c>
       <c r="AK53" t="n">
         <v>-147.722774209829</v>
       </c>
       <c r="AL53" t="n">
-        <v>-50.41733597203655</v>
+        <v>-44.87143337990234</v>
       </c>
       <c r="AM53" t="n">
         <v>0</v>
@@ -8902,13 +8902,13 @@
         <v>0</v>
       </c>
       <c r="AV53" t="n">
-        <v>98.25</v>
+        <v>95.5</v>
       </c>
       <c r="AW53" t="n">
-        <v>4.582934344798702</v>
+        <v>4.460875089211624</v>
       </c>
       <c r="AX53" t="n">
-        <v>-202.6784124124695</v>
+        <v>-196.9879875766992</v>
       </c>
       <c r="AY53" t="n">
         <v>231.8436203100819</v>

--- a/Calculs/PH4/DataBase_PH4_FileA_MidStrip_V6_results.xlsx
+++ b/Calculs/PH4/DataBase_PH4_FileA_MidStrip_V6_results.xlsx
@@ -913,92 +913,92 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V3" t="n">
-        <v>57.75616</v>
+        <v>43</v>
       </c>
       <c r="W3" t="n">
-        <v>17.54368</v>
+        <v>23.5</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>57.75616</v>
+        <v>43</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.54368</v>
+        <v>23.5</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.75616</v>
+        <v>43</v>
       </c>
       <c r="AC3" t="n">
-        <v>17.54368</v>
+        <v>23.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>104.286336</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="n">
-        <v>75.29984</v>
+        <v>66.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>57.75616</v>
+        <v>43</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.54368</v>
+        <v>23.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>4.03221163376613</v>
+        <v>3.002019182922545</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.100404544042653</v>
+        <v>1.495089604370364</v>
       </c>
       <c r="AK3" t="n">
-        <v>-196.8679920668285</v>
+        <v>-146.5700569233416</v>
       </c>
       <c r="AL3" t="n">
-        <v>-48.68031506829654</v>
+        <v>-66.98318513961327</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-64.68282275310645</v>
+        <v>-88.97812646028179</v>
       </c>
       <c r="AO3" t="n">
-        <v>104.286336</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="AP3" t="n">
         <v>139.5608127713233</v>
       </c>
       <c r="AQ3" t="n">
-        <v>223.4878045253519</v>
+        <v>210.0766963127283</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.700996691588296</v>
+        <v>4.287462521289326</v>
       </c>
       <c r="AS3" t="n">
-        <v>-293.7037820429964</v>
+        <v>-269.8687868856533</v>
       </c>
       <c r="AT3" t="n">
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>-394.0298351819448</v>
+        <v>-361.8829626228821</v>
       </c>
       <c r="AV3" t="n">
-        <v>75.29984</v>
+        <v>66.5</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.815902837349302</v>
+        <v>3.3862519693014</v>
       </c>
       <c r="AX3" t="n">
-        <v>-260.6062619827709</v>
+        <v>-230.1042882621955</v>
       </c>
       <c r="AY3" t="n">
         <v>139.5608127713233</v>
@@ -1075,41 +1075,41 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>41.899</v>
+        <v>38</v>
       </c>
       <c r="W4" t="n">
-        <v>12.727</v>
+        <v>21</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.899</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.727</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>41.899</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="n">
-        <v>12.727</v>
+        <v>21</v>
       </c>
       <c r="AD4" t="n">
-        <v>75.65415</v>
+        <v>82.80000000000001</v>
       </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="n">
-        <v>54.626</v>
+        <v>59</v>
       </c>
       <c r="AG4" t="n">
-        <v>41.899</v>
+        <v>38</v>
       </c>
       <c r="AH4" t="n">
-        <v>12.727</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>75.65415</v>
+        <v>82.80000000000001</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>54.626</v>
+        <v>59</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -1231,92 +1231,92 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V5" t="n">
-        <v>82.50880000000001</v>
+        <v>64</v>
       </c>
       <c r="W5" t="n">
-        <v>25.0624</v>
+        <v>25</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>82.50880000000001</v>
+        <v>64</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.0624</v>
+        <v>25</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>82.50880000000001</v>
+        <v>64</v>
       </c>
       <c r="AC5" t="n">
-        <v>25.0624</v>
+        <v>25</v>
       </c>
       <c r="AD5" t="n">
-        <v>148.98048</v>
+        <v>123.9</v>
       </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="n">
-        <v>107.5712</v>
+        <v>89</v>
       </c>
       <c r="AG5" t="n">
-        <v>82.50880000000001</v>
+        <v>64</v>
       </c>
       <c r="AH5" t="n">
-        <v>25.0624</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>6.597923532644842</v>
+        <v>5.117843261437198</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.852086660175052</v>
+        <v>1.866655645199933</v>
       </c>
       <c r="AK5" t="n">
-        <v>-208.043692123073</v>
+        <v>-161.3742569989707</v>
       </c>
       <c r="AL5" t="n">
-        <v>-54.76543538558477</v>
+        <v>-55.69224376903041</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>-75.25472353050453</v>
+        <v>-76.50422692139156</v>
       </c>
       <c r="AO5" t="n">
-        <v>148.98048</v>
+        <v>123.9</v>
       </c>
       <c r="AP5" t="n">
         <v>185.3758029442311</v>
       </c>
       <c r="AQ5" t="n">
-        <v>257.0266178131512</v>
+        <v>245.3470651367611</v>
       </c>
       <c r="AR5" t="n">
-        <v>7.774936584618744</v>
+        <v>6.631447726748569</v>
       </c>
       <c r="AS5" t="n">
-        <v>-333.0440834990916</v>
+        <v>-282.1896454069126</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-465.8288148762886</v>
+        <v>-394.3032627822279</v>
       </c>
       <c r="AV5" t="n">
-        <v>107.5712</v>
+        <v>89</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.174873963041843</v>
+        <v>5.172164699394579</v>
       </c>
       <c r="AX5" t="n">
-        <v>-277.7955462225471</v>
+        <v>-229.6579975572108</v>
       </c>
       <c r="AY5" t="n">
         <v>185.3758029442311</v>
@@ -1393,41 +1393,41 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>41.899</v>
+        <v>44</v>
       </c>
       <c r="W6" t="n">
-        <v>12.727</v>
+        <v>17</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>41.899</v>
+        <v>44</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.727</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>41.899</v>
+        <v>44</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.727</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="n">
-        <v>75.65415</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>54.626</v>
+        <v>61</v>
       </c>
       <c r="AG6" t="n">
-        <v>41.899</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="n">
-        <v>12.727</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>75.65415</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>54.626</v>
+        <v>61</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0.04</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1549,95 +1549,95 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V7" t="n">
-        <v>0.75008</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.22784</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.75008</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.22784</v>
+        <v>8.5</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.75008</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.22784</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.354368</v>
+        <v>12.75</v>
       </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>0.9779199999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.75008</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.22784</v>
+        <v>8.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.1565769506764085</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.03377032897883413</v>
+        <v>1.085717931353592</v>
       </c>
       <c r="AK7" t="n">
-        <v>-10.32273340627632</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>-1.683001728498895</v>
+        <v>-43.24224380788517</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-2.279474097756703</v>
+        <v>-58.88033251316076</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.354368</v>
+        <v>12.75</v>
       </c>
       <c r="AP7" t="n">
-        <v>34.44146086956506</v>
+        <v>68.3209636539154</v>
       </c>
       <c r="AQ7" t="n">
-        <v>117.3278258371712</v>
+        <v>135.6713560228659</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.150947503293869</v>
+        <v>1.218886590924012</v>
       </c>
       <c r="AS7" t="n">
-        <v>-10.13458999731081</v>
+        <v>-65.72015103050815</v>
       </c>
       <c r="AT7" t="n">
         <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>-13.84447731420324</v>
+        <v>-90.48435271890934</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.9779199999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.1518159934798387</v>
+        <v>0.9633299058145214</v>
       </c>
       <c r="AX7" t="n">
-        <v>-13.60228827782394</v>
+        <v>-60.05355786303541</v>
       </c>
       <c r="AY7" t="n">
-        <v>34.44146086956506</v>
+        <v>68.3209636539154</v>
       </c>
     </row>
     <row r="8">
@@ -1711,41 +1711,41 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6446000000000001</v>
+        <v>3</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1958</v>
+        <v>5</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6446000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1958</v>
+        <v>5</v>
       </c>
       <c r="AA8" t="n">
         <v>0.25</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.48345</v>
+        <v>2.25</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.35695</v>
+        <v>5.75</v>
       </c>
       <c r="AD8" t="n">
-        <v>1.16391</v>
+        <v>11.55</v>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="n">
-        <v>0.8404</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.48345</v>
+        <v>2.25</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.35695</v>
+        <v>5.75</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.16391</v>
+        <v>11.55</v>
       </c>
       <c r="AP8" t="n">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.8404</v>
+        <v>8</v>
       </c>
       <c r="AW8" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0.04</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1867,95 +1867,95 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V9" t="n">
-        <v>0.75008</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.22784</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.75008</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.22784</v>
+        <v>8.5</v>
       </c>
       <c r="AA9" t="n">
         <v>0.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.37504</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.60288</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.354368</v>
+        <v>12.75</v>
       </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="n">
-        <v>0.9779199999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.37504</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.60288</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.07830217517960909</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.08989222916785386</v>
+        <v>1.085717931353592</v>
       </c>
       <c r="AK9" t="n">
-        <v>-5.161243698608737</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-4.471402265417987</v>
+        <v>-43.24224380788517</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-6.05635660610685</v>
+        <v>-58.88033251316076</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.354368</v>
+        <v>12.75</v>
       </c>
       <c r="AP9" t="n">
-        <v>34.44146086956506</v>
+        <v>68.3209636539154</v>
       </c>
       <c r="AQ9" t="n">
-        <v>117.3278258371712</v>
+        <v>135.6713560228659</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.150947503293869</v>
+        <v>1.218886590924012</v>
       </c>
       <c r="AS9" t="n">
-        <v>-10.13458999731081</v>
+        <v>-65.72015103050815</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-13.84447731420324</v>
+        <v>-90.48435271890934</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.9779199999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.1518159934798387</v>
+        <v>0.9633299058145214</v>
       </c>
       <c r="AX9" t="n">
-        <v>-13.60228827782394</v>
+        <v>-60.05355786303541</v>
       </c>
       <c r="AY9" t="n">
-        <v>34.44146086956506</v>
+        <v>68.3209636539154</v>
       </c>
     </row>
     <row r="10">
@@ -2011,13 +2011,13 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0003079966675862069</v>
+        <v>0.0001539</v>
       </c>
       <c r="Q10" t="n">
         <v>0.04</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -2029,68 +2029,68 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>36.918</v>
+        <v>35</v>
       </c>
       <c r="W10" t="n">
-        <v>11.214</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.918</v>
+        <v>35</v>
       </c>
       <c r="Z10" t="n">
-        <v>11.214</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
         <v>0.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>18.459</v>
+        <v>17.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>29.673</v>
+        <v>32.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>66.66030000000001</v>
+        <v>69.75</v>
       </c>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="n">
-        <v>48.132</v>
+        <v>50</v>
       </c>
       <c r="AG10" t="n">
-        <v>18.459</v>
+        <v>17.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>29.673</v>
+        <v>32.5</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7.706836920401595</v>
+        <v>6.140192384143787</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-551.0977758652836</v>
+        <v>-305.1615687795037</v>
       </c>
       <c r="AM10" t="n">
-        <v>-551.0977758652836</v>
+        <v>-305.1615687795037</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>66.66030000000001</v>
+        <v>69.75</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>25.47205483625882</v>
+        <v>50.65714948116104</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2105,16 +2105,16 @@
         <v>0</v>
       </c>
       <c r="AV10" t="n">
-        <v>48.132</v>
+        <v>50</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>16.61663039889481</v>
       </c>
       <c r="AX10" t="n">
-        <v>0</v>
+        <v>-460.3373637265183</v>
       </c>
       <c r="AY10" t="n">
-        <v>25.47205483625882</v>
+        <v>50.65714948116104</v>
       </c>
     </row>
     <row r="11">
@@ -2185,92 +2185,92 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V11" t="n">
-        <v>58.59999999999999</v>
+        <v>58</v>
       </c>
       <c r="W11" t="n">
-        <v>17.8</v>
+        <v>24.2</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>58.59999999999999</v>
+        <v>58</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.8</v>
+        <v>24.2</v>
       </c>
       <c r="AA11" t="n">
         <v>0.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>47.09999999999999</v>
+        <v>53.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>105.81</v>
+        <v>114.6</v>
       </c>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="n">
-        <v>76.39999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="AG11" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="AH11" t="n">
-        <v>47.09999999999999</v>
+        <v>53.2</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.649507730665783</v>
+        <v>2.622379665164085</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3.849100347561103</v>
+        <v>4.404002521577174</v>
       </c>
       <c r="AK11" t="n">
-        <v>-97.76439588182745</v>
+        <v>-96.76339524139921</v>
       </c>
       <c r="AL11" t="n">
-        <v>-130.4288571703404</v>
+        <v>-150.9975445679287</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>-178.4204632419654</v>
+        <v>-206.4827460013016</v>
       </c>
       <c r="AO11" t="n">
-        <v>105.81</v>
+        <v>114.6</v>
       </c>
       <c r="AP11" t="n">
         <v>142.6007553479555</v>
       </c>
       <c r="AQ11" t="n">
-        <v>215.5728637086456</v>
+        <v>203.7072725773202</v>
       </c>
       <c r="AR11" t="n">
-        <v>6.192288359244262</v>
+        <v>6.741856978976176</v>
       </c>
       <c r="AS11" t="n">
-        <v>-298.5319306476986</v>
+        <v>-331.6109846789374</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-414.4512387580368</v>
+        <v>-460.2045537118651</v>
       </c>
       <c r="AV11" t="n">
-        <v>76.39999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.99934616387804</v>
+        <v>5.35566753444244</v>
       </c>
       <c r="AX11" t="n">
-        <v>-260.0774683009388</v>
+        <v>-279.8888055703686</v>
       </c>
       <c r="AY11" t="n">
         <v>142.6007553479555</v>
@@ -2329,13 +2329,13 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0006159933351724138</v>
+        <v>0.0001539</v>
       </c>
       <c r="Q12" t="n">
         <v>0.04</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -2347,92 +2347,92 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>29.3</v>
+        <v>27</v>
       </c>
       <c r="W12" t="n">
-        <v>8.9</v>
+        <v>18</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.3</v>
+        <v>27</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.9</v>
+        <v>18</v>
       </c>
       <c r="AA12" t="n">
         <v>0.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.65</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>23.55</v>
+        <v>31.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>52.905</v>
+        <v>63.45</v>
       </c>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="n">
-        <v>38.2</v>
+        <v>45</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.65</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>23.55</v>
+        <v>31.5</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2.58074994946876</v>
+        <v>2.500290929788671</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-158.0794004202967</v>
+        <v>-106.2501551168966</v>
       </c>
       <c r="AM12" t="n">
-        <v>-187.1590186233241</v>
+        <v>-126.6063585055695</v>
       </c>
       <c r="AN12" t="n">
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>52.905</v>
+        <v>63.45</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>59.55438172963535</v>
+        <v>118.2573294083617</v>
       </c>
       <c r="AR12" t="n">
-        <v>4.126219037280061</v>
+        <v>3.656184799755169</v>
       </c>
       <c r="AS12" t="n">
-        <v>-356.7749542747011</v>
+        <v>-215.1237000223591</v>
       </c>
       <c r="AT12" t="n">
-        <v>-425.0757520447539</v>
+        <v>-258.7421789456687</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
       </c>
       <c r="AV12" t="n">
-        <v>38.2</v>
+        <v>45</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.018763972876981</v>
+        <v>2.621593348641425</v>
       </c>
       <c r="AX12" t="n">
-        <v>-257.5385138594025</v>
+        <v>-152.5420490607233</v>
       </c>
       <c r="AY12" t="n">
-        <v>59.55438172963535</v>
+        <v>118.2573294083617</v>
       </c>
     </row>
     <row r="13">
@@ -2506,53 +2506,53 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>49.81</v>
+        <v>47</v>
       </c>
       <c r="W13" t="n">
-        <v>15.13</v>
+        <v>24</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>49.81</v>
+        <v>47</v>
       </c>
       <c r="Z13" t="n">
-        <v>15.13</v>
+        <v>24</v>
       </c>
       <c r="AA13" t="n">
         <v>0.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>24.905</v>
+        <v>23.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>40.035</v>
+        <v>47.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>89.9385</v>
+        <v>99.45</v>
       </c>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="n">
-        <v>64.94</v>
+        <v>71</v>
       </c>
       <c r="AG13" t="n">
-        <v>24.905</v>
+        <v>23.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>40.035</v>
+        <v>47.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.738727622108974</v>
+        <v>1.64063839066697</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2.795019488100094</v>
+        <v>3.316183981135369</v>
       </c>
       <c r="AK13" t="n">
-        <v>-84.89133180641447</v>
+        <v>-80.10224041159367</v>
       </c>
       <c r="AL13" t="n">
-        <v>-136.4635402075809</v>
+        <v>-161.908783810668</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>89.9385</v>
+        <v>99.45</v>
       </c>
       <c r="AP13" t="n">
         <v>139.5608127713233</v>
@@ -2570,10 +2570,10 @@
         <v>139.5608127713233</v>
       </c>
       <c r="AR13" t="n">
-        <v>4.520623363255907</v>
+        <v>4.971691835092703</v>
       </c>
       <c r="AS13" t="n">
-        <v>-311.3756437412503</v>
+        <v>-344.3829588642717</v>
       </c>
       <c r="AT13" t="n">
         <v>0</v>
@@ -2582,13 +2582,13 @@
         <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>64.94</v>
+        <v>71</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.30962009023422</v>
+        <v>3.606522470281802</v>
       </c>
       <c r="AX13" t="n">
-        <v>-224.698360617138</v>
+        <v>-245.7005626806132</v>
       </c>
       <c r="AY13" t="n">
         <v>139.5608127713233</v>
@@ -2660,12 +2660,8 @@
       <c r="U14" t="n">
         <v>0</v>
       </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="n">
         <v>0</v>
       </c>
@@ -2814,62 +2810,62 @@
         <v>7</v>
       </c>
       <c r="V15" t="n">
-        <v>41.02</v>
+        <v>39</v>
       </c>
       <c r="W15" t="n">
-        <v>12.46</v>
+        <v>21</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>41.02</v>
+        <v>39</v>
       </c>
       <c r="Z15" t="n">
-        <v>12.46</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>41.02</v>
+        <v>39</v>
       </c>
       <c r="AC15" t="n">
-        <v>12.46</v>
+        <v>21</v>
       </c>
       <c r="AD15" t="n">
-        <v>74.06699999999999</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="n">
-        <v>53.48</v>
+        <v>60</v>
       </c>
       <c r="AG15" t="n">
-        <v>41.02</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="n">
-        <v>12.46</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.902840112491737</v>
+        <v>2.759891867069182</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.7909284849405567</v>
+        <v>1.333027122100441</v>
       </c>
       <c r="AK15" t="n">
-        <v>-142.4361347672589</v>
+        <v>-135.4219711341565</v>
       </c>
       <c r="AL15" t="n">
-        <v>-35.09666794459356</v>
+        <v>-59.151677520447</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-46.63079395323843</v>
+        <v>-78.59121474439236</v>
       </c>
       <c r="AO15" t="n">
-        <v>74.06699999999999</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="AP15" t="n">
         <v>136.9899254721916</v>
@@ -2878,25 +2874,25 @@
         <v>221.1245741288741</v>
       </c>
       <c r="AR15" t="n">
-        <v>3.428926283505807</v>
+        <v>3.875832859917348</v>
       </c>
       <c r="AS15" t="n">
-        <v>-211.591676430332</v>
+        <v>-240.4520027604244</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>-283.7719682840062</v>
+        <v>-322.5042233776077</v>
       </c>
       <c r="AV15" t="n">
-        <v>53.48</v>
+        <v>60</v>
       </c>
       <c r="AW15" t="n">
-        <v>2.77857313089295</v>
+        <v>3.106263798750506</v>
       </c>
       <c r="AX15" t="n">
-        <v>-188.4454033108782</v>
+        <v>-211.4513319021124</v>
       </c>
       <c r="AY15" t="n">
         <v>136.9899254721916</v>
@@ -2973,41 +2969,41 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>46.294</v>
+        <v>45</v>
       </c>
       <c r="W16" t="n">
-        <v>14.062</v>
+        <v>22</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.294</v>
+        <v>45</v>
       </c>
       <c r="Z16" t="n">
-        <v>14.062</v>
+        <v>22</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>46.294</v>
+        <v>45</v>
       </c>
       <c r="AC16" t="n">
-        <v>14.062</v>
+        <v>22</v>
       </c>
       <c r="AD16" t="n">
-        <v>83.5899</v>
+        <v>93.75</v>
       </c>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="n">
-        <v>60.35599999999999</v>
+        <v>67</v>
       </c>
       <c r="AG16" t="n">
-        <v>46.294</v>
+        <v>45</v>
       </c>
       <c r="AH16" t="n">
-        <v>14.062</v>
+        <v>22</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
@@ -3028,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>83.5899</v>
+        <v>93.75</v>
       </c>
       <c r="AP16" t="n">
         <v>0</v>
@@ -3049,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>60.35599999999999</v>
+        <v>67</v>
       </c>
       <c r="AW16" t="n">
         <v>0</v>
@@ -3132,62 +3128,62 @@
         <v>7</v>
       </c>
       <c r="V17" t="n">
-        <v>92.58799999999999</v>
+        <v>90</v>
       </c>
       <c r="W17" t="n">
-        <v>28.124</v>
+        <v>36</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>92.58799999999999</v>
+        <v>90</v>
       </c>
       <c r="Z17" t="n">
-        <v>28.124</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>92.58799999999999</v>
+        <v>90</v>
       </c>
       <c r="AC17" t="n">
-        <v>28.124</v>
+        <v>36</v>
       </c>
       <c r="AD17" t="n">
-        <v>167.1798</v>
+        <v>175.5</v>
       </c>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="n">
-        <v>120.712</v>
+        <v>126</v>
       </c>
       <c r="AG17" t="n">
-        <v>92.58799999999999</v>
+        <v>90</v>
       </c>
       <c r="AH17" t="n">
-        <v>28.124</v>
+        <v>36</v>
       </c>
       <c r="AI17" t="n">
-        <v>5.848151547266887</v>
+        <v>5.684685264332522</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.666406591315464</v>
+        <v>2.13307627959596</v>
       </c>
       <c r="AK17" t="n">
-        <v>-184.9600621993254</v>
+        <v>-179.7900980466075</v>
       </c>
       <c r="AL17" t="n">
-        <v>-50.07948554627075</v>
+        <v>-64.10402075329785</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>-68.77661874943598</v>
+        <v>-88.0372022109123</v>
       </c>
       <c r="AO17" t="n">
-        <v>167.1798</v>
+        <v>175.5</v>
       </c>
       <c r="AP17" t="n">
         <v>234.0516547892252</v>
@@ -3196,25 +3192,25 @@
         <v>303.0157237168912</v>
       </c>
       <c r="AR17" t="n">
-        <v>7.056668820617124</v>
+        <v>7.376163434588531</v>
       </c>
       <c r="AS17" t="n">
-        <v>-304.4938111882975</v>
+        <v>-319.7249097463555</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>-425.3704392475681</v>
+        <v>-446.7103053207481</v>
       </c>
       <c r="AV17" t="n">
-        <v>120.712</v>
+        <v>126</v>
       </c>
       <c r="AW17" t="n">
-        <v>5.516410630988855</v>
+        <v>5.742149271078271</v>
       </c>
       <c r="AX17" t="n">
-        <v>-246.8383739347172</v>
+        <v>-257.6966513965019</v>
       </c>
       <c r="AY17" t="n">
         <v>234.0516547892252</v>
@@ -3291,41 +3287,41 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>41.02</v>
+        <v>42</v>
       </c>
       <c r="W18" t="n">
-        <v>12.46</v>
+        <v>22</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>41.02</v>
+        <v>42</v>
       </c>
       <c r="Z18" t="n">
-        <v>12.46</v>
+        <v>22</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>41.02</v>
+        <v>42</v>
       </c>
       <c r="AC18" t="n">
-        <v>12.46</v>
+        <v>22</v>
       </c>
       <c r="AD18" t="n">
-        <v>74.06699999999999</v>
+        <v>89.7</v>
       </c>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="n">
-        <v>53.48</v>
+        <v>64</v>
       </c>
       <c r="AG18" t="n">
-        <v>41.02</v>
+        <v>42</v>
       </c>
       <c r="AH18" t="n">
-        <v>12.46</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
@@ -3346,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>74.06699999999999</v>
+        <v>89.7</v>
       </c>
       <c r="AP18" t="n">
         <v>0</v>
@@ -3367,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="AV18" t="n">
-        <v>53.48</v>
+        <v>64</v>
       </c>
       <c r="AW18" t="n">
         <v>0</v>
@@ -3453,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -3462,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
@@ -3471,32 +3467,32 @@
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1.890726955058754</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>-124.6373371169279</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
@@ -3505,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AP19" t="n">
         <v>60.84658086956494</v>
@@ -3514,10 +3510,10 @@
         <v>60.84658086956494</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>2.067651141803517</v>
       </c>
       <c r="AS19" t="n">
-        <v>0</v>
+        <v>-189.0841590181457</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
@@ -3526,13 +3522,13 @@
         <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AW19" t="n">
-        <v>0</v>
+        <v>1.38844069671874</v>
       </c>
       <c r="AX19" t="n">
-        <v>0</v>
+        <v>-126.0253961251063</v>
       </c>
       <c r="AY19" t="n">
         <v>60.84658086956494</v>
@@ -3612,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -3621,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
@@ -3630,20 +3626,20 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
@@ -3664,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AP20" t="n">
         <v>0</v>
@@ -3685,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="AV20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AW20" t="n">
         <v>0</v>
@@ -3771,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -3780,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
@@ -3789,32 +3785,32 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1.890726955058754</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>-124.6373371169279</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
@@ -3823,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AP21" t="n">
         <v>60.84658086956494</v>
@@ -3832,10 +3828,10 @@
         <v>60.84658086956494</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>2.067651141803517</v>
       </c>
       <c r="AS21" t="n">
-        <v>0</v>
+        <v>-189.0841590181457</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
@@ -3844,13 +3840,13 @@
         <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AW21" t="n">
-        <v>0</v>
+        <v>1.38844069671874</v>
       </c>
       <c r="AX21" t="n">
-        <v>0</v>
+        <v>-126.0253961251063</v>
       </c>
       <c r="AY21" t="n">
         <v>60.84658086956494</v>
@@ -3927,41 +3923,41 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>39.262</v>
+        <v>39</v>
       </c>
       <c r="W22" t="n">
-        <v>11.926</v>
+        <v>22</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>39.262</v>
+        <v>39</v>
       </c>
       <c r="Z22" t="n">
-        <v>11.926</v>
+        <v>22</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>39.262</v>
+        <v>39</v>
       </c>
       <c r="AC22" t="n">
-        <v>11.926</v>
+        <v>22</v>
       </c>
       <c r="AD22" t="n">
-        <v>70.8927</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="n">
-        <v>51.188</v>
+        <v>61</v>
       </c>
       <c r="AG22" t="n">
-        <v>39.262</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="n">
-        <v>11.926</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
@@ -3982,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>70.8927</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="AP22" t="n">
         <v>0</v>
@@ -4003,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>51.188</v>
+        <v>61</v>
       </c>
       <c r="AW22" t="n">
         <v>0</v>
@@ -4086,62 +4082,62 @@
         <v>10</v>
       </c>
       <c r="V23" t="n">
-        <v>86.142</v>
+        <v>85</v>
       </c>
       <c r="W23" t="n">
-        <v>26.166</v>
+        <v>35</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>86.142</v>
+        <v>85</v>
       </c>
       <c r="Z23" t="n">
-        <v>26.166</v>
+        <v>35</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>86.142</v>
+        <v>85</v>
       </c>
       <c r="AC23" t="n">
-        <v>26.166</v>
+        <v>35</v>
       </c>
       <c r="AD23" t="n">
-        <v>155.5407</v>
+        <v>167.25</v>
       </c>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="n">
-        <v>112.308</v>
+        <v>120</v>
       </c>
       <c r="AG23" t="n">
-        <v>86.142</v>
+        <v>85</v>
       </c>
       <c r="AH23" t="n">
-        <v>26.166</v>
+        <v>35</v>
       </c>
       <c r="AI23" t="n">
-        <v>6.152909350208685</v>
+        <v>6.071339123397865</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.669337976344505</v>
+        <v>2.232929342354872</v>
       </c>
       <c r="AK23" t="n">
-        <v>-227.7362627514825</v>
+        <v>-224.7171221224955</v>
       </c>
       <c r="AL23" t="n">
-        <v>-56.14887969732945</v>
+        <v>-75.10551056357598</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>-76.82665948854161</v>
+        <v>-102.7643920392477</v>
       </c>
       <c r="AO23" t="n">
-        <v>155.5407</v>
+        <v>167.25</v>
       </c>
       <c r="AP23" t="n">
         <v>179.9805132143005</v>
@@ -4150,25 +4146,25 @@
         <v>285.9197783522705</v>
       </c>
       <c r="AR23" t="n">
-        <v>7.026213332472899</v>
+        <v>7.50402820045414</v>
       </c>
       <c r="AS23" t="n">
-        <v>-340.2149745200514</v>
+        <v>-365.9672998539853</v>
       </c>
       <c r="AT23" t="n">
         <v>0</v>
       </c>
       <c r="AU23" t="n">
-        <v>-472.6153653046126</v>
+        <v>-508.476440450145</v>
       </c>
       <c r="AV23" t="n">
-        <v>112.308</v>
+        <v>120</v>
       </c>
       <c r="AW23" t="n">
-        <v>5.750291454519624</v>
+        <v>6.115522178642266</v>
       </c>
       <c r="AX23" t="n">
-        <v>-303.0593952316504</v>
+        <v>-323.8996453176064</v>
       </c>
       <c r="AY23" t="n">
         <v>179.9805132143005</v>
@@ -4245,41 +4241,41 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>41.02</v>
+        <v>41</v>
       </c>
       <c r="W24" t="n">
-        <v>12.46</v>
+        <v>22</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>41.02</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="n">
-        <v>12.46</v>
+        <v>22</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>41.02</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="n">
-        <v>12.46</v>
+        <v>22</v>
       </c>
       <c r="AD24" t="n">
-        <v>74.06699999999999</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="n">
-        <v>53.48</v>
+        <v>63</v>
       </c>
       <c r="AG24" t="n">
-        <v>41.02</v>
+        <v>41</v>
       </c>
       <c r="AH24" t="n">
-        <v>12.46</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
         <v>0</v>
@@ -4300,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>74.06699999999999</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="AP24" t="n">
         <v>0</v>
@@ -4321,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="AV24" t="n">
-        <v>53.48</v>
+        <v>63</v>
       </c>
       <c r="AW24" t="n">
         <v>0</v>
@@ -4404,62 +4400,62 @@
         <v>7</v>
       </c>
       <c r="V25" t="n">
-        <v>42.192</v>
+        <v>39</v>
       </c>
       <c r="W25" t="n">
-        <v>12.816</v>
+        <v>23</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>42.192</v>
+        <v>39</v>
       </c>
       <c r="Z25" t="n">
-        <v>12.816</v>
+        <v>23</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>42.192</v>
+        <v>39</v>
       </c>
       <c r="AC25" t="n">
-        <v>12.816</v>
+        <v>23</v>
       </c>
       <c r="AD25" t="n">
-        <v>76.1832</v>
+        <v>87.15000000000001</v>
       </c>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="n">
-        <v>55.008</v>
+        <v>62</v>
       </c>
       <c r="AG25" t="n">
-        <v>42.192</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="n">
-        <v>12.816</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>2.985778401420073</v>
+        <v>2.759891867069182</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.813527409373297</v>
+        <v>1.459982086110005</v>
       </c>
       <c r="AK25" t="n">
-        <v>-146.5057386177521</v>
+        <v>-135.4219711341565</v>
       </c>
       <c r="AL25" t="n">
-        <v>-36.09942376676425</v>
+        <v>-64.78517061763245</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>-47.96309562686348</v>
+        <v>-86.07609233909642</v>
       </c>
       <c r="AO25" t="n">
-        <v>76.1832</v>
+        <v>87.15000000000001</v>
       </c>
       <c r="AP25" t="n">
         <v>136.9899254721916</v>
@@ -4468,25 +4464,25 @@
         <v>221.1245741288741</v>
       </c>
       <c r="AR25" t="n">
-        <v>3.523130952549434</v>
+        <v>4.007843345441042</v>
       </c>
       <c r="AS25" t="n">
-        <v>-217.647676163663</v>
+        <v>-249.0415341929675</v>
       </c>
       <c r="AT25" t="n">
         <v>0</v>
       </c>
       <c r="AU25" t="n">
-        <v>-291.8989095814583</v>
+        <v>-334.0332073400495</v>
       </c>
       <c r="AV25" t="n">
-        <v>55.008</v>
+        <v>62</v>
       </c>
       <c r="AW25" t="n">
-        <v>2.8555910834165</v>
+        <v>3.206285226281008</v>
       </c>
       <c r="AX25" t="n">
-        <v>-193.8363372057563</v>
+        <v>-218.5098006478965</v>
       </c>
       <c r="AY25" t="n">
         <v>136.9899254721916</v>
@@ -4558,12 +4554,8 @@
       <c r="U26" t="n">
         <v>0</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="n">
         <v>0</v>
       </c>
@@ -4712,62 +4704,62 @@
         <v>7</v>
       </c>
       <c r="V27" t="n">
-        <v>38.09</v>
+        <v>36</v>
       </c>
       <c r="W27" t="n">
-        <v>11.57</v>
+        <v>4</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>38.09</v>
+        <v>36</v>
       </c>
       <c r="Z27" t="n">
-        <v>11.57</v>
+        <v>4</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>38.09</v>
+        <v>36</v>
       </c>
       <c r="AC27" t="n">
-        <v>11.57</v>
+        <v>4</v>
       </c>
       <c r="AD27" t="n">
-        <v>68.7765</v>
+        <v>54.6</v>
       </c>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="n">
-        <v>49.66</v>
+        <v>40</v>
       </c>
       <c r="AG27" t="n">
-        <v>38.09</v>
+        <v>36</v>
       </c>
       <c r="AH27" t="n">
-        <v>11.57</v>
+        <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>2.695494390170897</v>
+        <v>2.547592492679243</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.7344348985722545</v>
+        <v>0.2539071640376774</v>
       </c>
       <c r="AK27" t="n">
-        <v>-132.2621251410262</v>
+        <v>-125.0048964315291</v>
       </c>
       <c r="AL27" t="n">
-        <v>-32.58975483699903</v>
+        <v>-11.26700367162229</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>-43.30001388478816</v>
+        <v>-14.96977439731941</v>
       </c>
       <c r="AO27" t="n">
-        <v>68.7765</v>
+        <v>54.6</v>
       </c>
       <c r="AP27" t="n">
         <v>136.9899254721916</v>
@@ -4776,25 +4768,25 @@
         <v>221.1245741288741</v>
       </c>
       <c r="AR27" t="n">
-        <v>3.192271636681081</v>
+        <v>2.551090532136833</v>
       </c>
       <c r="AS27" t="n">
-        <v>-196.4568963549318</v>
+        <v>-155.9257615309195</v>
       </c>
       <c r="AT27" t="n">
         <v>0</v>
       </c>
       <c r="AU27" t="n">
-        <v>-263.4622775882136</v>
+        <v>-209.0802515687604</v>
       </c>
       <c r="AV27" t="n">
-        <v>49.66</v>
+        <v>40</v>
       </c>
       <c r="AW27" t="n">
-        <v>2.585437604606063</v>
+        <v>2.09330177880717</v>
       </c>
       <c r="AX27" t="n">
-        <v>-174.9697697286322</v>
+        <v>-140.9033804783188</v>
       </c>
       <c r="AY27" t="n">
         <v>136.9899254721916</v>
@@ -4871,41 +4863,41 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>52.73999999999999</v>
+        <v>52</v>
       </c>
       <c r="W28" t="n">
-        <v>16.02</v>
+        <v>25</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>52.73999999999999</v>
+        <v>52</v>
       </c>
       <c r="Z28" t="n">
-        <v>16.02</v>
+        <v>25</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>52.73999999999999</v>
+        <v>52</v>
       </c>
       <c r="AC28" t="n">
-        <v>16.02</v>
+        <v>25</v>
       </c>
       <c r="AD28" t="n">
-        <v>95.229</v>
+        <v>107.7</v>
       </c>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="n">
-        <v>68.75999999999999</v>
+        <v>77</v>
       </c>
       <c r="AG28" t="n">
-        <v>52.73999999999999</v>
+        <v>52</v>
       </c>
       <c r="AH28" t="n">
-        <v>16.02</v>
+        <v>25</v>
       </c>
       <c r="AI28" t="n">
         <v>0</v>
@@ -4926,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="AO28" t="n">
-        <v>95.229</v>
+        <v>107.7</v>
       </c>
       <c r="AP28" t="n">
         <v>0</v>
@@ -4947,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="AV28" t="n">
-        <v>68.75999999999999</v>
+        <v>77</v>
       </c>
       <c r="AW28" t="n">
         <v>0</v>
@@ -5030,62 +5022,62 @@
         <v>7</v>
       </c>
       <c r="V29" t="n">
-        <v>100.792</v>
+        <v>100</v>
       </c>
       <c r="W29" t="n">
-        <v>30.616</v>
+        <v>39</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>100.792</v>
+        <v>100</v>
       </c>
       <c r="Z29" t="n">
-        <v>30.616</v>
+        <v>39</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.792</v>
+        <v>100</v>
       </c>
       <c r="AC29" t="n">
-        <v>30.616</v>
+        <v>39</v>
       </c>
       <c r="AD29" t="n">
-        <v>181.9932</v>
+        <v>193.5</v>
       </c>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="n">
-        <v>131.408</v>
+        <v>139</v>
       </c>
       <c r="AG29" t="n">
-        <v>100.792</v>
+        <v>100</v>
       </c>
       <c r="AH29" t="n">
-        <v>30.616</v>
+        <v>39</v>
       </c>
       <c r="AI29" t="n">
-        <v>6.366342190695587</v>
+        <v>6.316316960369468</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.814062871558609</v>
+        <v>2.310832636228955</v>
       </c>
       <c r="AK29" t="n">
-        <v>-201.3489284701518</v>
+        <v>-199.7667756073417</v>
       </c>
       <c r="AL29" t="n">
-        <v>-54.51690831619351</v>
+        <v>-69.44602248273925</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>-74.8707495247025</v>
+        <v>-95.37363572848821</v>
       </c>
       <c r="AO29" t="n">
-        <v>181.9932</v>
+        <v>193.5</v>
       </c>
       <c r="AP29" t="n">
         <v>234.0516547892252</v>
@@ -5094,25 +5086,25 @@
         <v>303.0157237168912</v>
       </c>
       <c r="AR29" t="n">
-        <v>7.62318668177099</v>
+        <v>8.055873804274562</v>
       </c>
       <c r="AS29" t="n">
-        <v>-331.6171901385703</v>
+        <v>-352.7044247152288</v>
       </c>
       <c r="AT29" t="n">
         <v>0</v>
       </c>
       <c r="AU29" t="n">
-        <v>-463.3770991919615</v>
+        <v>-492.941181991054</v>
       </c>
       <c r="AV29" t="n">
-        <v>131.408</v>
+        <v>139</v>
       </c>
       <c r="AW29" t="n">
-        <v>5.971525216634906</v>
+        <v>6.290971233320588</v>
       </c>
       <c r="AX29" t="n">
-        <v>-268.8056108372073</v>
+        <v>-284.4082756551174</v>
       </c>
       <c r="AY29" t="n">
         <v>234.0516547892252</v>
@@ -5189,41 +5181,41 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>49.224</v>
+        <v>50</v>
       </c>
       <c r="W30" t="n">
-        <v>14.952</v>
+        <v>25</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.224</v>
+        <v>50</v>
       </c>
       <c r="Z30" t="n">
-        <v>14.952</v>
+        <v>25</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>49.224</v>
+        <v>50</v>
       </c>
       <c r="AC30" t="n">
-        <v>14.952</v>
+        <v>25</v>
       </c>
       <c r="AD30" t="n">
-        <v>88.88039999999999</v>
+        <v>105</v>
       </c>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="n">
-        <v>64.176</v>
+        <v>75</v>
       </c>
       <c r="AG30" t="n">
-        <v>49.224</v>
+        <v>50</v>
       </c>
       <c r="AH30" t="n">
-        <v>14.952</v>
+        <v>25</v>
       </c>
       <c r="AI30" t="n">
         <v>0</v>
@@ -5244,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="AO30" t="n">
-        <v>88.88039999999999</v>
+        <v>105</v>
       </c>
       <c r="AP30" t="n">
         <v>0</v>
@@ -5265,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="AV30" t="n">
-        <v>64.176</v>
+        <v>75</v>
       </c>
       <c r="AW30" t="n">
         <v>0</v>
@@ -5351,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -5360,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -5369,32 +5361,32 @@
         <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1.654386085676408</v>
       </c>
       <c r="AK31" t="n">
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>-109.0576699773119</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
@@ -5403,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AP31" t="n">
         <v>60.84658086956494</v>
@@ -5412,10 +5404,10 @@
         <v>60.84658086956494</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>1.814138659101074</v>
       </c>
       <c r="AS31" t="n">
-        <v>0</v>
+        <v>-165.4334474232411</v>
       </c>
       <c r="AT31" t="n">
         <v>0</v>
@@ -5424,13 +5416,13 @@
         <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AW31" t="n">
-        <v>0</v>
+        <v>1.217058018264735</v>
       </c>
       <c r="AX31" t="n">
-        <v>0</v>
+        <v>-110.2655713273145</v>
       </c>
       <c r="AY31" t="n">
         <v>60.84658086956494</v>
@@ -5510,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -5519,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
@@ -5528,20 +5520,20 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG32" t="n">
         <v>0</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AI32" t="n">
         <v>0</v>
@@ -5562,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AP32" t="n">
         <v>0</v>
@@ -5583,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="AV32" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AW32" t="n">
         <v>0</v>
@@ -5669,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -5678,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
@@ -5687,32 +5679,32 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG33" t="n">
         <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1.654386085676408</v>
       </c>
       <c r="AK33" t="n">
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>-109.0576699773119</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
@@ -5721,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AP33" t="n">
         <v>60.84658086956494</v>
@@ -5730,10 +5722,10 @@
         <v>60.84658086956494</v>
       </c>
       <c r="AR33" t="n">
-        <v>0</v>
+        <v>1.814138659101074</v>
       </c>
       <c r="AS33" t="n">
-        <v>0</v>
+        <v>-165.4334474232411</v>
       </c>
       <c r="AT33" t="n">
         <v>0</v>
@@ -5742,13 +5734,13 @@
         <v>0</v>
       </c>
       <c r="AV33" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AW33" t="n">
-        <v>0</v>
+        <v>1.217058018264735</v>
       </c>
       <c r="AX33" t="n">
-        <v>0</v>
+        <v>-110.2655713273145</v>
       </c>
       <c r="AY33" t="n">
         <v>60.84658086956494</v>
@@ -5825,41 +5817,41 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>41.02</v>
+        <v>40</v>
       </c>
       <c r="W34" t="n">
-        <v>12.46</v>
+        <v>23</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>41.02</v>
+        <v>40</v>
       </c>
       <c r="Z34" t="n">
-        <v>12.46</v>
+        <v>23</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>41.02</v>
+        <v>40</v>
       </c>
       <c r="AC34" t="n">
-        <v>12.46</v>
+        <v>23</v>
       </c>
       <c r="AD34" t="n">
-        <v>74.06699999999999</v>
+        <v>88.5</v>
       </c>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="n">
-        <v>53.48</v>
+        <v>63</v>
       </c>
       <c r="AG34" t="n">
-        <v>41.02</v>
+        <v>40</v>
       </c>
       <c r="AH34" t="n">
-        <v>12.46</v>
+        <v>23</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
@@ -5880,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="AO34" t="n">
-        <v>74.06699999999999</v>
+        <v>88.5</v>
       </c>
       <c r="AP34" t="n">
         <v>0</v>
@@ -5901,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="AV34" t="n">
-        <v>53.48</v>
+        <v>63</v>
       </c>
       <c r="AW34" t="n">
         <v>0</v>
@@ -5984,62 +5976,62 @@
         <v>10</v>
       </c>
       <c r="V35" t="n">
-        <v>86.142</v>
+        <v>85</v>
       </c>
       <c r="W35" t="n">
-        <v>26.166</v>
+        <v>35</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>86.142</v>
+        <v>85</v>
       </c>
       <c r="Z35" t="n">
-        <v>26.166</v>
+        <v>35</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>86.142</v>
+        <v>85</v>
       </c>
       <c r="AC35" t="n">
-        <v>26.166</v>
+        <v>35</v>
       </c>
       <c r="AD35" t="n">
-        <v>155.5407</v>
+        <v>167.25</v>
       </c>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="n">
-        <v>112.308</v>
+        <v>120</v>
       </c>
       <c r="AG35" t="n">
-        <v>86.142</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="n">
-        <v>26.166</v>
+        <v>35</v>
       </c>
       <c r="AI35" t="n">
-        <v>6.152909350208685</v>
+        <v>6.071339123397865</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1.669337976344505</v>
+        <v>2.232929342354872</v>
       </c>
       <c r="AK35" t="n">
-        <v>-227.7362627514825</v>
+        <v>-224.7171221224955</v>
       </c>
       <c r="AL35" t="n">
-        <v>-56.14887969732945</v>
+        <v>-75.10551056357598</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
       </c>
       <c r="AN35" t="n">
-        <v>-76.82665948854161</v>
+        <v>-102.7643920392477</v>
       </c>
       <c r="AO35" t="n">
-        <v>155.5407</v>
+        <v>167.25</v>
       </c>
       <c r="AP35" t="n">
         <v>179.9805132143005</v>
@@ -6048,25 +6040,25 @@
         <v>285.9197783522705</v>
       </c>
       <c r="AR35" t="n">
-        <v>7.026213332472899</v>
+        <v>7.50402820045414</v>
       </c>
       <c r="AS35" t="n">
-        <v>-340.2149745200514</v>
+        <v>-365.9672998539853</v>
       </c>
       <c r="AT35" t="n">
         <v>0</v>
       </c>
       <c r="AU35" t="n">
-        <v>-472.6153653046126</v>
+        <v>-508.476440450145</v>
       </c>
       <c r="AV35" t="n">
-        <v>112.308</v>
+        <v>120</v>
       </c>
       <c r="AW35" t="n">
-        <v>5.750291454519624</v>
+        <v>6.115522178642266</v>
       </c>
       <c r="AX35" t="n">
-        <v>-303.0593952316504</v>
+        <v>-323.8996453176064</v>
       </c>
       <c r="AY35" t="n">
         <v>179.9805132143005</v>
@@ -6143,41 +6135,41 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>38.09</v>
+        <v>37</v>
       </c>
       <c r="W36" t="n">
-        <v>11.57</v>
+        <v>22</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>38.09</v>
+        <v>37</v>
       </c>
       <c r="Z36" t="n">
-        <v>11.57</v>
+        <v>22</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>38.09</v>
+        <v>37</v>
       </c>
       <c r="AC36" t="n">
-        <v>11.57</v>
+        <v>22</v>
       </c>
       <c r="AD36" t="n">
-        <v>68.7765</v>
+        <v>82.95</v>
       </c>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="n">
-        <v>49.66</v>
+        <v>59</v>
       </c>
       <c r="AG36" t="n">
-        <v>38.09</v>
+        <v>37</v>
       </c>
       <c r="AH36" t="n">
-        <v>11.57</v>
+        <v>22</v>
       </c>
       <c r="AI36" t="n">
         <v>0</v>
@@ -6198,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>68.7765</v>
+        <v>82.95</v>
       </c>
       <c r="AP36" t="n">
         <v>0</v>
@@ -6219,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="AV36" t="n">
-        <v>49.66</v>
+        <v>59</v>
       </c>
       <c r="AW36" t="n">
         <v>0</v>
@@ -6302,53 +6294,53 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>42.778</v>
+        <v>40</v>
       </c>
       <c r="W37" t="n">
-        <v>12.994</v>
+        <v>23</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.778</v>
+        <v>40</v>
       </c>
       <c r="Z37" t="n">
-        <v>12.994</v>
+        <v>23</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>42.778</v>
+        <v>40</v>
       </c>
       <c r="AC37" t="n">
-        <v>12.994</v>
+        <v>23</v>
       </c>
       <c r="AD37" t="n">
-        <v>77.2413</v>
+        <v>88.5</v>
       </c>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="n">
-        <v>55.772</v>
+        <v>63</v>
       </c>
       <c r="AG37" t="n">
-        <v>42.778</v>
+        <v>40</v>
       </c>
       <c r="AH37" t="n">
-        <v>12.994</v>
+        <v>23</v>
       </c>
       <c r="AI37" t="n">
-        <v>3.027247545884238</v>
+        <v>2.83065832519916</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0.9195393569409469</v>
+        <v>1.627628536989517</v>
       </c>
       <c r="AK37" t="n">
-        <v>-148.5405405429986</v>
+        <v>-138.8943293683656</v>
       </c>
       <c r="AL37" t="n">
-        <v>-45.11982289531357</v>
+        <v>-79.86423938681023</v>
       </c>
       <c r="AM37" t="n">
         <v>0</v>
@@ -6357,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="AO37" t="n">
-        <v>77.2413</v>
+        <v>88.5</v>
       </c>
       <c r="AP37" t="n">
         <v>136.9899254721916</v>
@@ -6366,10 +6358,10 @@
         <v>136.9899254721916</v>
       </c>
       <c r="AR37" t="n">
-        <v>3.960747717314941</v>
+        <v>4.509110576610983</v>
       </c>
       <c r="AS37" t="n">
-        <v>-272.322416340386</v>
+        <v>-312.0996735125206</v>
       </c>
       <c r="AT37" t="n">
         <v>0</v>
@@ -6378,13 +6370,13 @@
         <v>0</v>
       </c>
       <c r="AV37" t="n">
-        <v>55.772</v>
+        <v>63</v>
       </c>
       <c r="AW37" t="n">
-        <v>2.894049270304163</v>
+        <v>3.256207963400611</v>
       </c>
       <c r="AX37" t="n">
-        <v>-196.5319505595179</v>
+        <v>-222.039289359367</v>
       </c>
       <c r="AY37" t="n">
         <v>136.9899254721916</v>
@@ -6456,12 +6448,8 @@
       <c r="U38" t="n">
         <v>0</v>
       </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="n">
         <v>0</v>
       </c>
@@ -6610,62 +6598,62 @@
         <v>7</v>
       </c>
       <c r="V39" t="n">
-        <v>41.02</v>
+        <v>39</v>
       </c>
       <c r="W39" t="n">
-        <v>12.46</v>
+        <v>21</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>41.02</v>
+        <v>39</v>
       </c>
       <c r="Z39" t="n">
-        <v>12.46</v>
+        <v>21</v>
       </c>
       <c r="AA39" t="n">
         <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>41.02</v>
+        <v>39</v>
       </c>
       <c r="AC39" t="n">
-        <v>12.46</v>
+        <v>21</v>
       </c>
       <c r="AD39" t="n">
-        <v>74.06699999999999</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="n">
-        <v>53.48</v>
+        <v>60</v>
       </c>
       <c r="AG39" t="n">
-        <v>41.02</v>
+        <v>39</v>
       </c>
       <c r="AH39" t="n">
-        <v>12.46</v>
+        <v>21</v>
       </c>
       <c r="AI39" t="n">
-        <v>2.902840112491737</v>
+        <v>2.759891867069182</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.7909284849405567</v>
+        <v>1.333027122100441</v>
       </c>
       <c r="AK39" t="n">
-        <v>-142.4361347672589</v>
+        <v>-135.4219711341565</v>
       </c>
       <c r="AL39" t="n">
-        <v>-35.09666794459356</v>
+        <v>-59.151677520447</v>
       </c>
       <c r="AM39" t="n">
         <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>-46.63079395323843</v>
+        <v>-78.59121474439236</v>
       </c>
       <c r="AO39" t="n">
-        <v>74.06699999999999</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="AP39" t="n">
         <v>136.9899254721916</v>
@@ -6674,25 +6662,25 @@
         <v>221.1245741288741</v>
       </c>
       <c r="AR39" t="n">
-        <v>3.428926283505807</v>
+        <v>3.875832859917348</v>
       </c>
       <c r="AS39" t="n">
-        <v>-211.591676430332</v>
+        <v>-240.4520027604244</v>
       </c>
       <c r="AT39" t="n">
         <v>0</v>
       </c>
       <c r="AU39" t="n">
-        <v>-283.7719682840062</v>
+        <v>-322.5042233776077</v>
       </c>
       <c r="AV39" t="n">
-        <v>53.48</v>
+        <v>60</v>
       </c>
       <c r="AW39" t="n">
-        <v>2.77857313089295</v>
+        <v>3.106263798750506</v>
       </c>
       <c r="AX39" t="n">
-        <v>-188.4454033108782</v>
+        <v>-211.4513319021124</v>
       </c>
       <c r="AY39" t="n">
         <v>136.9899254721916</v>
@@ -6769,41 +6757,41 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>45.122</v>
+        <v>45</v>
       </c>
       <c r="W40" t="n">
-        <v>13.706</v>
+        <v>22</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>45.122</v>
+        <v>45</v>
       </c>
       <c r="Z40" t="n">
-        <v>13.706</v>
+        <v>22</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>45.122</v>
+        <v>45</v>
       </c>
       <c r="AC40" t="n">
-        <v>13.706</v>
+        <v>22</v>
       </c>
       <c r="AD40" t="n">
-        <v>81.47370000000001</v>
+        <v>93.75</v>
       </c>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="n">
-        <v>58.828</v>
+        <v>67</v>
       </c>
       <c r="AG40" t="n">
-        <v>45.122</v>
+        <v>45</v>
       </c>
       <c r="AH40" t="n">
-        <v>13.706</v>
+        <v>22</v>
       </c>
       <c r="AI40" t="n">
         <v>0</v>
@@ -6824,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="AO40" t="n">
-        <v>81.47370000000001</v>
+        <v>93.75</v>
       </c>
       <c r="AP40" t="n">
         <v>0</v>
@@ -6845,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="AV40" t="n">
-        <v>58.828</v>
+        <v>67</v>
       </c>
       <c r="AW40" t="n">
         <v>0</v>
@@ -6928,62 +6916,62 @@
         <v>7</v>
       </c>
       <c r="V41" t="n">
-        <v>96.69</v>
+        <v>95</v>
       </c>
       <c r="W41" t="n">
-        <v>29.37</v>
+        <v>35</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.69</v>
+        <v>95</v>
       </c>
       <c r="Z41" t="n">
-        <v>29.37</v>
+        <v>35</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>96.69</v>
+        <v>95</v>
       </c>
       <c r="AC41" t="n">
-        <v>29.37</v>
+        <v>35</v>
       </c>
       <c r="AD41" t="n">
-        <v>174.5865</v>
+        <v>180.75</v>
       </c>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="n">
-        <v>126.06</v>
+        <v>130</v>
       </c>
       <c r="AG41" t="n">
-        <v>96.69</v>
+        <v>95</v>
       </c>
       <c r="AH41" t="n">
-        <v>29.37</v>
+        <v>35</v>
       </c>
       <c r="AI41" t="n">
-        <v>6.107246868981237</v>
+        <v>6.000501112350999</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1.740234731437037</v>
+        <v>2.073824160718294</v>
       </c>
       <c r="AK41" t="n">
-        <v>-193.1544953347387</v>
+        <v>-189.7784368269746</v>
       </c>
       <c r="AL41" t="n">
-        <v>-52.29819693123211</v>
+        <v>-62.32335351015065</v>
       </c>
       <c r="AM41" t="n">
         <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>-71.82368413706922</v>
+        <v>-85.59172437172023</v>
       </c>
       <c r="AO41" t="n">
-        <v>174.5865</v>
+        <v>180.75</v>
       </c>
       <c r="AP41" t="n">
         <v>234.0516547892252</v>
@@ -6992,25 +6980,25 @@
         <v>303.0157237168912</v>
       </c>
       <c r="AR41" t="n">
-        <v>7.34124720925542</v>
+        <v>7.576049603700943</v>
       </c>
       <c r="AS41" t="n">
-        <v>-318.0522411317019</v>
+        <v>-329.3398803395786</v>
       </c>
       <c r="AT41" t="n">
         <v>0</v>
       </c>
       <c r="AU41" t="n">
-        <v>-444.3664374673814</v>
+        <v>-460.1851610118367</v>
       </c>
       <c r="AV41" t="n">
-        <v>126.06</v>
+        <v>130</v>
       </c>
       <c r="AW41" t="n">
-        <v>5.74470238870591</v>
+        <v>5.911951465554342</v>
       </c>
       <c r="AX41" t="n">
-        <v>-257.8198778718473</v>
+        <v>-265.9129181856611</v>
       </c>
       <c r="AY41" t="n">
         <v>234.0516547892252</v>
@@ -7087,41 +7075,41 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>54.498</v>
+        <v>54</v>
       </c>
       <c r="W42" t="n">
-        <v>16.554</v>
+        <v>23</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>54.498</v>
+        <v>54</v>
       </c>
       <c r="Z42" t="n">
-        <v>16.554</v>
+        <v>23</v>
       </c>
       <c r="AA42" t="n">
         <v>0.25</v>
       </c>
       <c r="AB42" t="n">
-        <v>40.8735</v>
+        <v>40.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>30.1785</v>
+        <v>36.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>98.4033</v>
+        <v>107.4</v>
       </c>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="n">
-        <v>71.05199999999999</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="n">
-        <v>40.8735</v>
+        <v>40.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>30.1785</v>
+        <v>36.5</v>
       </c>
       <c r="AI42" t="n">
         <v>0</v>
@@ -7142,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="AO42" t="n">
-        <v>98.4033</v>
+        <v>107.4</v>
       </c>
       <c r="AP42" t="n">
         <v>0</v>
@@ -7163,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="AV42" t="n">
-        <v>71.05199999999999</v>
+        <v>77</v>
       </c>
       <c r="AW42" t="n">
         <v>0</v>
@@ -7249,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -7258,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA43" t="n">
         <v>0.5</v>
@@ -7267,32 +7255,32 @@
         <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG43" t="n">
         <v>0</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI43" t="n">
         <v>0</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0</v>
+        <v>1.06353477722186</v>
       </c>
       <c r="AK43" t="n">
         <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>-70.10849641055343</v>
       </c>
       <c r="AM43" t="n">
         <v>0</v>
@@ -7301,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AP43" t="n">
         <v>60.84658086956494</v>
@@ -7310,10 +7298,10 @@
         <v>60.84658086956494</v>
       </c>
       <c r="AR43" t="n">
-        <v>0</v>
+        <v>1.174114384062615</v>
       </c>
       <c r="AS43" t="n">
-        <v>0</v>
+        <v>-106.3259160243276</v>
       </c>
       <c r="AT43" t="n">
         <v>0</v>
@@ -7322,13 +7310,13 @@
         <v>0</v>
       </c>
       <c r="AV43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW43" t="n">
-        <v>0</v>
+        <v>0.7858675924290183</v>
       </c>
       <c r="AX43" t="n">
-        <v>0</v>
+        <v>-70.87439655399199</v>
       </c>
       <c r="AY43" t="n">
         <v>60.84658086956494</v>
@@ -7408,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -7417,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA44" t="n">
         <v>0.5</v>
@@ -7426,41 +7414,41 @@
         <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG44" t="n">
         <v>0</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI44" t="n">
         <v>0</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0</v>
+        <v>1.101913068601193</v>
       </c>
       <c r="AK44" t="n">
         <v>0</v>
       </c>
       <c r="AL44" t="n">
-        <v>0</v>
+        <v>-67.12477579479878</v>
       </c>
       <c r="AM44" t="n">
-        <v>0</v>
+        <v>-79.47918028015884</v>
       </c>
       <c r="AN44" t="n">
         <v>0</v>
       </c>
       <c r="AO44" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AP44" t="n">
         <v>0</v>
@@ -7469,25 +7457,25 @@
         <v>59.55438172984016</v>
       </c>
       <c r="AR44" t="n">
-        <v>0</v>
+        <v>1.214854003997025</v>
       </c>
       <c r="AS44" t="n">
-        <v>0</v>
+        <v>-101.0970501715082</v>
       </c>
       <c r="AT44" t="n">
-        <v>0</v>
+        <v>-120.4222338016739</v>
       </c>
       <c r="AU44" t="n">
         <v>0</v>
       </c>
       <c r="AV44" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AW44" t="n">
-        <v>0</v>
+        <v>0.8132775659737228</v>
       </c>
       <c r="AX44" t="n">
-        <v>0</v>
+        <v>-67.39211141531013</v>
       </c>
       <c r="AY44" t="n">
         <v>59.55438172984016</v>
@@ -7567,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -7576,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA45" t="n">
         <v>0.5</v>
@@ -7585,41 +7573,41 @@
         <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG45" t="n">
         <v>0</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI45" t="n">
         <v>0</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0</v>
+        <v>0.8502830580768594</v>
       </c>
       <c r="AK45" t="n">
         <v>0</v>
       </c>
       <c r="AL45" t="n">
-        <v>0</v>
+        <v>-47.26328373511209</v>
       </c>
       <c r="AM45" t="n">
         <v>0</v>
       </c>
       <c r="AN45" t="n">
-        <v>0</v>
+        <v>-63.87323499239229</v>
       </c>
       <c r="AO45" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AP45" t="n">
         <v>60.84658086956494</v>
@@ -7628,25 +7616,25 @@
         <v>142.4115962439864</v>
       </c>
       <c r="AR45" t="n">
-        <v>0</v>
+        <v>0.9507831364804339</v>
       </c>
       <c r="AS45" t="n">
-        <v>0</v>
+        <v>-71.51023010387827</v>
       </c>
       <c r="AT45" t="n">
         <v>0</v>
       </c>
       <c r="AU45" t="n">
-        <v>0</v>
+        <v>-97.4091249687858</v>
       </c>
       <c r="AV45" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW45" t="n">
-        <v>0</v>
+        <v>0.7858675924290183</v>
       </c>
       <c r="AX45" t="n">
-        <v>0</v>
+        <v>-70.87439655399199</v>
       </c>
       <c r="AY45" t="n">
         <v>60.84658086956494</v>
@@ -7723,62 +7711,62 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>96.69</v>
+        <v>80</v>
       </c>
       <c r="W46" t="n">
-        <v>29.37</v>
+        <v>25</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.69</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="n">
-        <v>29.37</v>
+        <v>25</v>
       </c>
       <c r="AA46" t="n">
         <v>0.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>48.345</v>
+        <v>40</v>
       </c>
       <c r="AC46" t="n">
-        <v>77.715</v>
+        <v>65</v>
       </c>
       <c r="AD46" t="n">
-        <v>174.5865</v>
+        <v>145.5</v>
       </c>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="n">
-        <v>126.06</v>
+        <v>105</v>
       </c>
       <c r="AG46" t="n">
-        <v>48.345</v>
+        <v>40</v>
       </c>
       <c r="AH46" t="n">
-        <v>77.715</v>
+        <v>65</v>
       </c>
       <c r="AI46" t="n">
         <v>0</v>
       </c>
       <c r="AJ46" t="n">
-        <v>10.78902237197736</v>
+        <v>9.02382363994762</v>
       </c>
       <c r="AK46" t="n">
         <v>0</v>
       </c>
       <c r="AL46" t="n">
-        <v>-722.7472261806594</v>
+        <v>-604.4980982016709</v>
       </c>
       <c r="AM46" t="n">
-        <v>-722.7472261806594</v>
+        <v>-604.4980982016709</v>
       </c>
       <c r="AN46" t="n">
         <v>0</v>
       </c>
       <c r="AO46" t="n">
-        <v>174.5865</v>
+        <v>145.5</v>
       </c>
       <c r="AP46" t="n">
         <v>0</v>
@@ -7799,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="AV46" t="n">
-        <v>126.06</v>
+        <v>105</v>
       </c>
       <c r="AW46" t="n">
         <v>0</v>
@@ -7882,62 +7870,62 @@
         <v>10</v>
       </c>
       <c r="V47" t="n">
-        <v>84.97</v>
+        <v>84</v>
       </c>
       <c r="W47" t="n">
-        <v>25.81</v>
+        <v>30</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>84.97</v>
+        <v>84</v>
       </c>
       <c r="Z47" t="n">
-        <v>25.81</v>
+        <v>30</v>
       </c>
       <c r="AA47" t="n">
         <v>0.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>42.485</v>
+        <v>42</v>
       </c>
       <c r="AC47" t="n">
-        <v>68.295</v>
+        <v>72</v>
       </c>
       <c r="AD47" t="n">
-        <v>153.4245</v>
+        <v>158.4</v>
       </c>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="n">
-        <v>110.78</v>
+        <v>114</v>
       </c>
       <c r="AG47" t="n">
-        <v>42.485</v>
+        <v>42</v>
       </c>
       <c r="AH47" t="n">
-        <v>68.295</v>
+        <v>72</v>
       </c>
       <c r="AI47" t="n">
-        <v>3.034598148912449</v>
+        <v>2.999955802149531</v>
       </c>
       <c r="AJ47" t="n">
-        <v>4.357083126746469</v>
+        <v>4.593454647130031</v>
       </c>
       <c r="AK47" t="n">
-        <v>-112.3189050985203</v>
+        <v>-111.0366956369978</v>
       </c>
       <c r="AL47" t="n">
-        <v>-146.5523098268408</v>
+        <v>-154.5027645879279</v>
       </c>
       <c r="AM47" t="n">
         <v>0</v>
       </c>
       <c r="AN47" t="n">
-        <v>-200.5226901234408</v>
+        <v>-211.4010350521668</v>
       </c>
       <c r="AO47" t="n">
-        <v>153.4245</v>
+        <v>158.4</v>
       </c>
       <c r="AP47" t="n">
         <v>179.9805132143005</v>
@@ -7946,25 +7934,25 @@
         <v>285.9197783522705</v>
       </c>
       <c r="AR47" t="n">
-        <v>6.93902594717117</v>
+        <v>7.143613732695524</v>
       </c>
       <c r="AS47" t="n">
-        <v>-335.5631337329279</v>
+        <v>-346.5014262096379</v>
       </c>
       <c r="AT47" t="n">
         <v>0</v>
       </c>
       <c r="AU47" t="n">
-        <v>-466.1389880445279</v>
+        <v>-481.3681933199053</v>
       </c>
       <c r="AV47" t="n">
-        <v>110.78</v>
+        <v>114</v>
       </c>
       <c r="AW47" t="n">
-        <v>5.677272594771612</v>
+        <v>5.830967706271445</v>
       </c>
       <c r="AX47" t="n">
-        <v>-298.9209078287499</v>
+        <v>-307.6425990577059</v>
       </c>
       <c r="AY47" t="n">
         <v>179.9805132143005</v>
@@ -8041,62 +8029,62 @@
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>15.236</v>
+        <v>13</v>
       </c>
       <c r="W48" t="n">
-        <v>4.628</v>
+        <v>14</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>15.236</v>
+        <v>13</v>
       </c>
       <c r="Z48" t="n">
-        <v>4.628</v>
+        <v>14</v>
       </c>
       <c r="AA48" t="n">
         <v>0.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>7.617999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>12.246</v>
+        <v>20.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>27.5106</v>
+        <v>38.55</v>
       </c>
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="n">
-        <v>19.864</v>
+        <v>27</v>
       </c>
       <c r="AG48" t="n">
-        <v>7.617999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>12.246</v>
+        <v>20.5</v>
       </c>
       <c r="AI48" t="n">
         <v>0</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1.349402743809023</v>
+        <v>2.258921790632447</v>
       </c>
       <c r="AK48" t="n">
         <v>0</v>
       </c>
       <c r="AL48" t="n">
-        <v>-82.20100043831056</v>
+        <v>-137.6057903793375</v>
       </c>
       <c r="AM48" t="n">
-        <v>-97.33020417108249</v>
+        <v>-162.9323195743256</v>
       </c>
       <c r="AN48" t="n">
         <v>0</v>
       </c>
       <c r="AO48" t="n">
-        <v>27.5106</v>
+        <v>38.55</v>
       </c>
       <c r="AP48" t="n">
         <v>0</v>
@@ -8105,25 +8093,25 @@
         <v>59.55438172984016</v>
       </c>
       <c r="AR48" t="n">
-        <v>2.204575589402713</v>
+        <v>3.059656425956164</v>
       </c>
       <c r="AS48" t="n">
-        <v>-185.4573557972713</v>
+        <v>-259.9293712246351</v>
       </c>
       <c r="AT48" t="n">
-        <v>-220.9323932031688</v>
+        <v>-309.6802686111222</v>
       </c>
       <c r="AU48" t="n">
         <v>0</v>
       </c>
       <c r="AV48" t="n">
-        <v>19.864</v>
+        <v>27</v>
       </c>
       <c r="AW48" t="n">
-        <v>1.60222461141521</v>
+        <v>2.164608303085397</v>
       </c>
       <c r="AX48" t="n">
-        <v>-133.8909847174686</v>
+        <v>-182.013574513372</v>
       </c>
       <c r="AY48" t="n">
         <v>59.55438172984016</v>
@@ -8203,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X49" t="n">
         <v>0</v>
@@ -8212,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA49" t="n">
         <v>0.5</v>
@@ -8221,32 +8209,32 @@
         <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG49" t="n">
         <v>0</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI49" t="n">
         <v>0</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0</v>
+        <v>0.978921345377654</v>
       </c>
       <c r="AK49" t="n">
         <v>0</v>
       </c>
       <c r="AL49" t="n">
-        <v>0</v>
+        <v>-68.94297087402133</v>
       </c>
       <c r="AM49" t="n">
         <v>0</v>
@@ -8255,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="AO49" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AP49" t="n">
         <v>68.74873422974773</v>
@@ -8264,10 +8252,10 @@
         <v>68.74873422974773</v>
       </c>
       <c r="AR49" t="n">
-        <v>0</v>
+        <v>1.079960572828786</v>
       </c>
       <c r="AS49" t="n">
-        <v>0</v>
+        <v>-104.4946249845768</v>
       </c>
       <c r="AT49" t="n">
         <v>0</v>
@@ -8276,13 +8264,13 @@
         <v>0</v>
       </c>
       <c r="AV49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AW49" t="n">
-        <v>0</v>
+        <v>0.7225490573517734</v>
       </c>
       <c r="AX49" t="n">
-        <v>0</v>
+        <v>-69.65590109768554</v>
       </c>
       <c r="AY49" t="n">
         <v>68.74873422974773</v>
@@ -8354,12 +8342,8 @@
       <c r="U50" t="n">
         <v>0</v>
       </c>
-      <c r="V50" t="n">
-        <v>0</v>
-      </c>
-      <c r="W50" t="n">
-        <v>0</v>
-      </c>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="n">
         <v>0</v>
       </c>
@@ -8508,53 +8492,53 @@
         <v>1</v>
       </c>
       <c r="V51" t="n">
-        <v>49.224</v>
+        <v>46</v>
       </c>
       <c r="W51" t="n">
-        <v>14.952</v>
+        <v>22</v>
       </c>
       <c r="X51" t="n">
         <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>49.224</v>
+        <v>46</v>
       </c>
       <c r="Z51" t="n">
-        <v>14.952</v>
+        <v>22</v>
       </c>
       <c r="AA51" t="n">
         <v>0</v>
       </c>
       <c r="AB51" t="n">
-        <v>49.224</v>
+        <v>46</v>
       </c>
       <c r="AC51" t="n">
-        <v>14.952</v>
+        <v>22</v>
       </c>
       <c r="AD51" t="n">
-        <v>88.88039999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="n">
-        <v>64.176</v>
+        <v>68</v>
       </c>
       <c r="AG51" t="n">
-        <v>49.224</v>
+        <v>46</v>
       </c>
       <c r="AH51" t="n">
-        <v>14.952</v>
+        <v>22</v>
       </c>
       <c r="AI51" t="n">
-        <v>2.936531196761651</v>
+        <v>2.744198664290507</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0.891983878879819</v>
+        <v>1.312442839443285</v>
       </c>
       <c r="AK51" t="n">
-        <v>-116.1239799983782</v>
+        <v>-108.5182650724321</v>
       </c>
       <c r="AL51" t="n">
-        <v>-35.27315433397837</v>
+        <v>-51.90003981725015</v>
       </c>
       <c r="AM51" t="n">
         <v>0</v>
@@ -8563,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="AO51" t="n">
-        <v>88.88039999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AP51" t="n">
         <v>201.7557870266416</v>
@@ -8572,10 +8556,10 @@
         <v>201.7557870266416</v>
       </c>
       <c r="AR51" t="n">
-        <v>3.880306524679483</v>
+        <v>4.139957565782385</v>
       </c>
       <c r="AS51" t="n">
-        <v>-213.5057285245572</v>
+        <v>-228.4774155415803</v>
       </c>
       <c r="AT51" t="n">
         <v>0</v>
@@ -8584,13 +8568,13 @@
         <v>0</v>
       </c>
       <c r="AV51" t="n">
-        <v>64.176</v>
+        <v>68</v>
       </c>
       <c r="AW51" t="n">
-        <v>2.833154730872132</v>
+        <v>2.996874447110193</v>
       </c>
       <c r="AX51" t="n">
-        <v>-154.0795720749711</v>
+        <v>-163.2738684171668</v>
       </c>
       <c r="AY51" t="n">
         <v>201.7557870266416</v>
@@ -8667,41 +8651,41 @@
         <v>1</v>
       </c>
       <c r="V52" t="n">
-        <v>27.542</v>
+        <v>27</v>
       </c>
       <c r="W52" t="n">
-        <v>8.366</v>
+        <v>17</v>
       </c>
       <c r="X52" t="n">
         <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>27.542</v>
+        <v>27</v>
       </c>
       <c r="Z52" t="n">
-        <v>8.366</v>
+        <v>17</v>
       </c>
       <c r="AA52" t="n">
         <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>27.542</v>
+        <v>27</v>
       </c>
       <c r="AC52" t="n">
-        <v>8.366</v>
+        <v>17</v>
       </c>
       <c r="AD52" t="n">
-        <v>49.7307</v>
+        <v>61.95</v>
       </c>
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="n">
-        <v>35.908</v>
+        <v>44</v>
       </c>
       <c r="AG52" t="n">
-        <v>27.542</v>
+        <v>27</v>
       </c>
       <c r="AH52" t="n">
-        <v>8.366</v>
+        <v>17</v>
       </c>
       <c r="AI52" t="n">
         <v>0</v>
@@ -8722,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="AO52" t="n">
-        <v>49.7307</v>
+        <v>61.95</v>
       </c>
       <c r="AP52" t="n">
         <v>0</v>
@@ -8743,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="AV52" t="n">
-        <v>35.908</v>
+        <v>44</v>
       </c>
       <c r="AW52" t="n">
         <v>0</v>
@@ -8826,53 +8810,53 @@
         <v>1</v>
       </c>
       <c r="V53" t="n">
-        <v>73.25</v>
+        <v>71</v>
       </c>
       <c r="W53" t="n">
-        <v>22.25</v>
+        <v>28</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>73.25</v>
+        <v>71</v>
       </c>
       <c r="Z53" t="n">
-        <v>22.25</v>
+        <v>28</v>
       </c>
       <c r="AA53" t="n">
         <v>0</v>
       </c>
       <c r="AB53" t="n">
-        <v>73.25</v>
+        <v>71</v>
       </c>
       <c r="AC53" t="n">
-        <v>22.25</v>
+        <v>28</v>
       </c>
       <c r="AD53" t="n">
-        <v>132.2625</v>
+        <v>137.85</v>
       </c>
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="n">
-        <v>95.5</v>
+        <v>99</v>
       </c>
       <c r="AG53" t="n">
-        <v>73.25</v>
+        <v>71</v>
       </c>
       <c r="AH53" t="n">
-        <v>22.25</v>
+        <v>28</v>
       </c>
       <c r="AI53" t="n">
-        <v>4.670766003694162</v>
+        <v>4.527295375594342</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1.418763432447539</v>
+        <v>1.785411329110055</v>
       </c>
       <c r="AK53" t="n">
-        <v>-147.722774209829</v>
+        <v>-143.1852145924622</v>
       </c>
       <c r="AL53" t="n">
-        <v>-44.87143337990234</v>
+        <v>-56.46741443619808</v>
       </c>
       <c r="AM53" t="n">
         <v>0</v>
@@ -8881,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="AO53" t="n">
-        <v>132.2625</v>
+        <v>137.85</v>
       </c>
       <c r="AP53" t="n">
         <v>231.8436203100819</v>
@@ -8890,10 +8874,10 @@
         <v>231.8436203100819</v>
       </c>
       <c r="AR53" t="n">
-        <v>6.060783353400152</v>
+        <v>6.297790663371647</v>
       </c>
       <c r="AS53" t="n">
-        <v>-273.1496095418709</v>
+        <v>-284.7430663338852</v>
       </c>
       <c r="AT53" t="n">
         <v>0</v>
@@ -8902,13 +8886,13 @@
         <v>0</v>
       </c>
       <c r="AV53" t="n">
-        <v>95.5</v>
+        <v>99</v>
       </c>
       <c r="AW53" t="n">
-        <v>4.460875089211624</v>
+        <v>4.616157747679489</v>
       </c>
       <c r="AX53" t="n">
-        <v>-196.9879875766992</v>
+        <v>-204.2305330044174</v>
       </c>
       <c r="AY53" t="n">
         <v>231.8436203100819</v>
